--- a/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.000122103023276921</v>
+        <v>-0.000122103023276921</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.03975420930705176</v>
+        <v>-0.03975420930705176</v>
       </c>
       <c r="C4">
-        <v>0.0003547783401619692</v>
+        <v>-0.0003547783401619692</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25458.74811064477</v>
+        <v>-25458.74811064477</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14165.1687099659</v>
+        <v>-14165.1687099659</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>561883.2955033459</v>
+        <v>-561883.2955033459</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10202876.3550067</v>
+        <v>-10202876.3550067</v>
       </c>
       <c r="C4">
-        <v>1632588.756556144</v>
+        <v>-1632588.756556144</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>322509219.5143732</v>
+        <v>-322509219.5143732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>130320025.6729218</v>
+        <v>-130320025.6729218</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>564808.9916065625</v>
+        <v>-564808.9916065625</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10066331.24000254</v>
+        <v>-10066331.24000254</v>
       </c>
       <c r="C4">
-        <v>1641089.558415598</v>
+        <v>-1641089.558415598</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>318548095.4131858</v>
+        <v>-318548095.4131858</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>128632734.9544906</v>
+        <v>-128632734.9544906</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001581839485639238</v>
+        <v>-0.001581839485639238</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.429341158426107</v>
+        <v>-0.429341158426107</v>
       </c>
       <c r="C4">
-        <v>0.004596138343315092</v>
+        <v>-0.004596138343315092</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>53593.67416322116</v>
+        <v>-53593.67416322116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>29817.92893351147</v>
+        <v>-29817.92893351147</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01560163851880217</v>
+        <v>-0.01560163851880217</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.609368859268707</v>
+        <v>-3.609368859268707</v>
       </c>
       <c r="C4">
-        <v>0.04533158368203881</v>
+        <v>-0.04533158368203881</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>107024.6826267145</v>
+        <v>-107024.6826267145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>59533.97964547844</v>
+        <v>-59533.97964547844</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1229571426201327</v>
+        <v>-0.1229571426201327</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>24.77286889901492</v>
+        <v>-24.77286889901492</v>
       </c>
       <c r="C4">
-        <v>0.357260039916427</v>
+        <v>-0.357260039916427</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>205913.4190447586</v>
+        <v>-205913.4190447586</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>114468.3615914362</v>
+        <v>-114468.3615914362</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8038350544733925</v>
+        <v>-0.8038350544733925</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>143.7947935162513</v>
+        <v>-143.7947935162513</v>
       </c>
       <c r="C4">
-        <v>2.335595456496609</v>
+        <v>-2.335595456496609</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>385619.3886050063</v>
+        <v>-385619.3886050063</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>213963.4393407881</v>
+        <v>-213963.4393407881</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.488909742243193</v>
+        <v>-4.488909742243193</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>725.0347462138328</v>
+        <v>-725.0347462138328</v>
       </c>
       <c r="C4">
-        <v>13.04282158418061</v>
+        <v>-13.04282158418061</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>705187.026839133</v>
+        <v>-705187.026839133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>389355.0314963615</v>
+        <v>-389355.0314963615</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>21.91591407448742</v>
+        <v>-21.91591407448742</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3242.105312070625</v>
+        <v>-3242.105312070625</v>
       </c>
       <c r="C4">
-        <v>63.67812532245969</v>
+        <v>-63.67812532245969</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1257051.870817367</v>
+        <v>-1257051.870817367</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>685928.2196966197</v>
+        <v>-685928.2196966197</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>95.29251412821318</v>
+        <v>-95.29251412821318</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13065.75912841654</v>
+        <v>-13065.75912841654</v>
       </c>
       <c r="C4">
-        <v>276.8786479233603</v>
+        <v>-276.8786479233603</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2188231.993150206</v>
+        <v>-2188231.993150206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1163041.822878175</v>
+        <v>-1163041.822878175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>374.4115355669207</v>
+        <v>-374.4115355669207</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>48018.49952887954</v>
+        <v>-48018.49952887954</v>
       </c>
       <c r="C4">
-        <v>1087.87726594345</v>
+        <v>-1087.87726594345</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3763126.094411244</v>
+        <v>-3763126.094411244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1893202.950617971</v>
+        <v>-1893202.950617971</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1343.159304138789</v>
+        <v>-1343.159304138789</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>161932.1243826597</v>
+        <v>-161932.1243826597</v>
       </c>
       <c r="C4">
-        <v>3902.637426222796</v>
+        <v>-3902.637426222796</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6538170.999204667</v>
+        <v>-6538170.999204667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2960250.63460856</v>
+        <v>-2960250.63460856</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4417.1153950669</v>
+        <v>-4417.1153950669</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>498874.8712660266</v>
+        <v>-498874.8712660266</v>
       </c>
       <c r="C4">
-        <v>12834.21840105999</v>
+        <v>-12834.21840105999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11767662.37531125</v>
+        <v>-11767662.37531125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4456249.126467519</v>
+        <v>-4456249.126467519</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13200.49646376041</v>
+        <v>-13200.49646376041</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1366172.794174894</v>
+        <v>-1366172.794174894</v>
       </c>
       <c r="C4">
-        <v>38354.90800342906</v>
+        <v>-38354.90800342906</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21960191.70607528</v>
+        <v>-21960191.70607528</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6476755.606746423</v>
+        <v>-6476755.606746423</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>34586.830002567</v>
+        <v>-34586.830002567</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3093659.558444425</v>
+        <v>-3093659.558444425</v>
       </c>
       <c r="C4">
-        <v>100494.3023560189</v>
+        <v>-100494.3023560189</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>39863276.82191108</v>
+        <v>-39863276.82191108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9114275.465149017</v>
+        <v>-9114275.465149017</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>72872.95190041601</v>
+        <v>-72872.95190041601</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5132092.468677185</v>
+        <v>-5132092.468677185</v>
       </c>
       <c r="C4">
-        <v>211737.1398683401</v>
+        <v>-211737.1398683401</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>61705821.21705119</v>
+        <v>-61705821.21705119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12449591.89355991</v>
+        <v>-12449591.89355991</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>105843.2150653634</v>
+        <v>-105843.2150653634</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6046971.587271209</v>
+        <v>-6046971.587271209</v>
       </c>
       <c r="C4">
-        <v>307534.4012828676</v>
+        <v>-307534.4012828676</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>76553505.18693681</v>
+        <v>-76553505.18693681</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>16540539.42936921</v>
+        <v>-16540539.42936921</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>90621.69697466891</v>
+        <v>-90621.69697466891</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6323617.146445098</v>
+        <v>-6323617.146445098</v>
       </c>
       <c r="C4">
-        <v>263307.2824283693</v>
+        <v>-263307.2824283693</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>86959230.33359897</v>
+        <v>-86959230.33359897</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>21408717.19090537</v>
+        <v>-21408717.19090537</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>53272.35366687577</v>
+        <v>-53272.35366687577</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6898635.303087421</v>
+        <v>-6898635.303087421</v>
       </c>
       <c r="C4">
-        <v>154786.3165319994</v>
+        <v>-154786.3165319994</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>100361988.8258383</v>
+        <v>-100361988.8258383</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>27027424.69301206</v>
+        <v>-27027424.69301206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>60347.6015011066</v>
+        <v>-60347.6015011066</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7544690.670498834</v>
+        <v>-7544690.670498834</v>
       </c>
       <c r="C4">
-        <v>175343.9130230392</v>
+        <v>-175343.9130230392</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>116563003.8104542</v>
+        <v>-116563003.8104542</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>33315157.19293903</v>
+        <v>-33315157.19293903</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>102420.2495612959</v>
+        <v>-102420.2495612959</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8297308.649267946</v>
+        <v>-8297308.649267946</v>
       </c>
       <c r="C4">
-        <v>297588.7505743623</v>
+        <v>-297588.7505743623</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>135344631.8269498</v>
+        <v>-135344631.8269498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>40133161.1644818</v>
+        <v>-40133161.1644818</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>148400.4384658646</v>
+        <v>-148400.4384658646</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8943181.603246484</v>
+        <v>-8943181.603246484</v>
       </c>
       <c r="C4">
-        <v>431187.2042580231</v>
+        <v>-431187.2042580231</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>154057882.5609559</v>
+        <v>-154057882.5609559</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>47295212.86645786</v>
+        <v>-47295212.86645786</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5540641216124529</v>
+        <v>-0.5540641216124529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3082831231305157</v>
+        <v>-0.3082831231305157</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>210112.8729941108</v>
+        <v>-210112.8729941108</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9530704.503060035</v>
+        <v>-9530704.503060035</v>
       </c>
       <c r="C4">
-        <v>610496.7291305632</v>
+        <v>-610496.7291305632</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>172983871.2456602</v>
+        <v>-172983871.2456602</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>54601288.0104876</v>
+        <v>-54601288.0104876</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>273014.0538768016</v>
+        <v>-273014.0538768016</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10028637.71548144</v>
+        <v>-10028637.71548144</v>
       </c>
       <c r="C4">
-        <v>793260.2344794667</v>
+        <v>-793260.2344794667</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>191247396.6683122</v>
+        <v>-191247396.6683122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>61887625.3826226</v>
+        <v>-61887625.3826226</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>305056.1098675992</v>
+        <v>-305056.1098675992</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9702797.473919403</v>
+        <v>-9702797.473919403</v>
       </c>
       <c r="C4">
-        <v>886360.5290889669</v>
+        <v>-886360.5290889669</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>202584530.8796814</v>
+        <v>-202584530.8796814</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>69090950.09059693</v>
+        <v>-69090950.09059693</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>378861.2672581258</v>
+        <v>-378861.2672581258</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9560491.990120066</v>
+        <v>-9560491.990120066</v>
       </c>
       <c r="C4">
-        <v>1100806.253131519</v>
+        <v>-1100806.253131519</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>216333011.2063746</v>
+        <v>-216333011.2063746</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>76325709.44739386</v>
+        <v>-76325709.44739386</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>608374.7061584517</v>
+        <v>-608374.7061584517</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9510290.323046086</v>
+        <v>-9510290.323046086</v>
       </c>
       <c r="C4">
-        <v>1767672.598555693</v>
+        <v>-1767672.598555693</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>235257137.2863235</v>
+        <v>-235257137.2863235</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>83966945.65373576</v>
+        <v>-83966945.65373576</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>918451.2331351876</v>
+        <v>-918451.2331351876</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9345632.910938939</v>
+        <v>-9345632.910938939</v>
       </c>
       <c r="C4">
-        <v>2668620.278733138</v>
+        <v>-2668620.278733138</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>257301339.4292854</v>
+        <v>-257301339.4292854</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92724773.97638944</v>
+        <v>-92724773.97638944</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1230110.216832989</v>
+        <v>-1230110.216832989</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9361694.340986662</v>
+        <v>-9361694.340986662</v>
       </c>
       <c r="C4">
-        <v>3574165.890671898</v>
+        <v>-3574165.890671898</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>284677774.9296958</v>
+        <v>-284677774.9296958</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>103692126.925523</v>
+        <v>-103692126.925523</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1462569.285311276</v>
+        <v>-1462569.285311276</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9089141.143400727</v>
+        <v>-9089141.143400727</v>
       </c>
       <c r="C4">
-        <v>4249590.955973394</v>
+        <v>-4249590.955973394</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>314647383.3390787</v>
+        <v>-314647383.3390787</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>118344998.4973733</v>
+        <v>-118344998.4973733</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1326088.861308203</v>
+        <v>-1326088.861308203</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8695186.603756141</v>
+        <v>-8695186.603756141</v>
       </c>
       <c r="C4">
-        <v>3853038.135306552</v>
+        <v>-3853038.135306552</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>344642193.5156105</v>
+        <v>-344642193.5156105</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>138477752.4282406</v>
+        <v>-138477752.4282406</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1240579.986507801</v>
+        <v>-1240579.986507801</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8113133.964652288</v>
+        <v>-8113133.964652288</v>
       </c>
       <c r="C4">
-        <v>3604586.492942193</v>
+        <v>-3604586.492942193</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>387882893.3642213</v>
+        <v>-387882893.3642213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>166059805.4135696</v>
+        <v>-166059805.4135696</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.00394783164922</v>
+        <v>-16.00394783164922</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.904649890702789</v>
+        <v>-8.904649890702789</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1196771.827929852</v>
+        <v>-1196771.827929852</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7740634.817215281</v>
+        <v>-7740634.817215281</v>
       </c>
       <c r="C4">
-        <v>3477299.015787854</v>
+        <v>-3477299.015787854</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>450511331.5890767</v>
+        <v>-450511331.5890767</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>203013886.8530733</v>
+        <v>-203013886.8530733</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1062644.811044619</v>
+        <v>-1062644.811044619</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8569673.73889786</v>
+        <v>-8569673.73889786</v>
       </c>
       <c r="C4">
-        <v>3087584.173809706</v>
+        <v>-3087584.173809706</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>539490067.9099478</v>
+        <v>-539490067.9099478</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>250952823.9388827</v>
+        <v>-250952823.9388827</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>915484.1246367355</v>
+        <v>-915484.1246367355</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10803132.97248339</v>
+        <v>-10803132.97248339</v>
       </c>
       <c r="C4">
-        <v>2659999.150444005</v>
+        <v>-2659999.150444005</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>660037698.5484008</v>
+        <v>-660037698.5484008</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>310912560.5223495</v>
+        <v>-310912560.5223495</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>838702.5077930951</v>
+        <v>-838702.5077930951</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>15347073.07160618</v>
+        <v>-15347073.07160618</v>
       </c>
       <c r="C4">
-        <v>2436905.128300428</v>
+        <v>-2436905.128300428</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>821202637.46306</v>
+        <v>-821202637.46306</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>383113519.7213705</v>
+        <v>-383113519.7213705</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1159493.456055162</v>
+        <v>-1159493.456055162</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>22581656.10023229</v>
+        <v>-22581656.10023229</v>
       </c>
       <c r="C4">
-        <v>3368984.262043809</v>
+        <v>-3368984.262043809</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1032287127.483734</v>
+        <v>-1032287127.483734</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>466774293.298962</v>
+        <v>-466774293.298962</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1726213.984804964</v>
+        <v>-1726213.984804964</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>31770989.08591301</v>
+        <v>-31770989.08591301</v>
       </c>
       <c r="C4">
-        <v>5015627.916964441</v>
+        <v>-5015627.916964441</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1280814166.960411</v>
+        <v>-1280814166.960411</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>559993124.4466887</v>
+        <v>-559993124.4466887</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2365338.059407942</v>
+        <v>-2365338.059407942</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>42930892.17743317</v>
+        <v>-42930892.17743317</v>
       </c>
       <c r="C4">
-        <v>6872644.821705218</v>
+        <v>-6872644.821705218</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1557203816.911706</v>
+        <v>-1557203816.911706</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>659713516.9444343</v>
+        <v>-659713516.9444343</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3400569.905429624</v>
+        <v>-3400569.905429624</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>61349852.76497231</v>
+        <v>-61349852.76497231</v>
       </c>
       <c r="C4">
-        <v>9880578.828232018</v>
+        <v>-9880578.828232018</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1900559251.246716</v>
+        <v>-1900559251.246716</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>761791990.0416964</v>
+        <v>-761791990.0416964</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4567080.209515738</v>
+        <v>-4567080.209515738</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>81819335.62128381</v>
+        <v>-81819335.62128381</v>
       </c>
       <c r="C4">
-        <v>13269951.00230929</v>
+        <v>-13269951.00230929</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2257284150.557414</v>
+        <v>-2257284150.557414</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>861189030.7739948</v>
+        <v>-861189030.7739948</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4987512.179105209</v>
+        <v>-4987512.179105209</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>88946521.64584255</v>
+        <v>-88946521.64584255</v>
       </c>
       <c r="C4">
-        <v>14491543.65676548</v>
+        <v>-14491543.65676548</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2483384772.989522</v>
+        <v>-2483384772.989522</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>952299580.1183124</v>
+        <v>-952299580.1183124</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>113.7843425054972</v>
+        <v>-113.7843425054972</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>63.30998724274475</v>
+        <v>-63.30998724274475</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4983558.101801769</v>
+        <v>-4983558.101801769</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>88585696.19951499</v>
+        <v>-88585696.19951499</v>
       </c>
       <c r="C4">
-        <v>14480054.82590005</v>
+        <v>-14480054.82590005</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2619251073.854652</v>
+        <v>-2619251073.854652</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1029418878.517974</v>
+        <v>-1029418878.517974</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4910148.500227395</v>
+        <v>-4910148.500227395</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>86965789.47584507</v>
+        <v>-86965789.47584507</v>
       </c>
       <c r="C4">
-        <v>14266758.41521707</v>
+        <v>-14266758.41521707</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2709652145.134197</v>
+        <v>-2709652145.134197</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1087305012.65332</v>
+        <v>-1087305012.65332</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4758307.364809091</v>
+        <v>-4758307.364809091</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>83820668.61784208</v>
+        <v>-83820668.61784208</v>
       </c>
       <c r="C4">
-        <v>13825574.04036468</v>
+        <v>-13825574.04036468</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2744881823.517621</v>
+        <v>-2744881823.517621</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1121762286.781056</v>
+        <v>-1121762286.781056</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4590419.495511012</v>
+        <v>-4590419.495511012</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>80064472.24665587</v>
+        <v>-80064472.24665587</v>
       </c>
       <c r="C4">
-        <v>13337764.82807501</v>
+        <v>-13337764.82807501</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2728388213.579568</v>
+        <v>-2728388213.579568</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1130145542.504937</v>
+        <v>-1130145542.504937</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4514336.217361049</v>
+        <v>-4514336.217361049</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>77513063.30903453</v>
+        <v>-77513063.30903453</v>
       </c>
       <c r="C4">
-        <v>13116699.87479447</v>
+        <v>-13116699.87479447</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2674696989.010839</v>
+        <v>-2674696989.010839</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1111688054.965704</v>
+        <v>-1111688054.965704</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4347429.574465793</v>
+        <v>-4347429.574465793</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>73315090.03150019</v>
+        <v>-73315090.03150019</v>
       </c>
       <c r="C4">
-        <v>12631741.68015509</v>
+        <v>-12631741.68015509</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2560668481.036726</v>
+        <v>-2560668481.036726</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1067588597.544329</v>
+        <v>-1067588597.544329</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3763783.458326468</v>
+        <v>-3763783.458326468</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>62630271.85732496</v>
+        <v>-62630271.85732496</v>
       </c>
       <c r="C4">
-        <v>10935919.62130008</v>
+        <v>-10935919.62130008</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2348373268.408773</v>
+        <v>-2348373268.408773</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1000848097.246979</v>
+        <v>-1000848097.246979</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2530213.668208383</v>
+        <v>-2530213.668208383</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>41715167.36391628</v>
+        <v>-41715167.36391628</v>
       </c>
       <c r="C4">
-        <v>7351701.713611604</v>
+        <v>-7351701.713611604</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2012737270.00706</v>
+        <v>-2012737270.00706</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>915903520.5361528</v>
+        <v>-915903520.5361528</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1095240.263227206</v>
+        <v>-1095240.263227206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>18262547.35211006</v>
+        <v>-18262547.35211006</v>
       </c>
       <c r="C4">
-        <v>3182292.397339441</v>
+        <v>-3182292.397339441</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1630617422.631393</v>
+        <v>-1630617422.631393</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>818143758.1259706</v>
+        <v>-818143758.1259706</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>503265.7614858455</v>
+        <v>-503265.7614858455</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9742585.429295538</v>
+        <v>-9742585.429295538</v>
       </c>
       <c r="C4">
-        <v>1462271.668043501</v>
+        <v>-1462271.668043501</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1365655569.746066</v>
+        <v>-1365655569.746066</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>713394649.5323939</v>
+        <v>-713394649.5323939</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.794046695302458E-11</v>
+        <v>-4.794046695302458E-11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5969,16 +5969,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.352996951768433E-08</v>
+        <v>-3.352996951768433E-08</v>
       </c>
       <c r="C4">
-        <v>1.392941700846368E-10</v>
+        <v>-1.392941700846368E-10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>476.5801160294369</v>
+        <v>-476.5801160294369</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>265.170764148854</v>
+        <v>-265.170764148854</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>432682.3087467159</v>
+        <v>-432682.3087467159</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9155690.802284759</v>
+        <v>-9155690.802284759</v>
       </c>
       <c r="C4">
-        <v>1257186.818105782</v>
+        <v>-1257186.818105782</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1169205139.714041</v>
+        <v>-1169205139.714041</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>607430361.050492</v>
+        <v>-607430361.050492</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>368335.4664811192</v>
+        <v>-368335.4664811192</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8543793.481839141</v>
+        <v>-8543793.481839141</v>
       </c>
       <c r="C4">
-        <v>1070222.848819959</v>
+        <v>-1070222.848819959</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>980029771.1085292</v>
+        <v>-980029771.1085292</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>505531733.2520038</v>
+        <v>-505531733.2520038</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>244199.9991005266</v>
+        <v>-244199.9991005266</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7142505.177720623</v>
+        <v>-7142505.177720623</v>
       </c>
       <c r="C4">
-        <v>709539.1090518121</v>
+        <v>-709539.1090518121</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>798836737.2906076</v>
+        <v>-798836737.2906076</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>412095148.1082497</v>
+        <v>-412095148.1082497</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>164264.5857903978</v>
+        <v>-164264.5857903978</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5899555.541894387</v>
+        <v>-5899555.541894387</v>
       </c>
       <c r="C4">
-        <v>477281.5244872477</v>
+        <v>-477281.5244872477</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>640812157.7605276</v>
+        <v>-640812157.7605276</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>330309101.6737792</v>
+        <v>-330309101.6737792</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>266580.9518425355</v>
+        <v>-266580.9518425355</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7069492.953970291</v>
+        <v>-7069492.953970291</v>
       </c>
       <c r="C4">
-        <v>774568.4347143342</v>
+        <v>-774568.4347143342</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>528987936.2220789</v>
+        <v>-528987936.2220789</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>261946156.3745015</v>
+        <v>-261946156.3745015</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>486339.4203660057</v>
+        <v>-486339.4203660057</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9472189.42928946</v>
+        <v>-9472189.42928946</v>
       </c>
       <c r="C4">
-        <v>1413091.074096266</v>
+        <v>-1413091.074096266</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>453743662.1272036</v>
+        <v>-453743662.1272036</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>207333164.6083124</v>
+        <v>-207333164.6083124</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>682435.5668947408</v>
+        <v>-682435.5668947408</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11963188.8674804</v>
+        <v>-11963188.8674804</v>
       </c>
       <c r="C4">
-        <v>1982861.285435273</v>
+        <v>-1982861.285435273</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>401607972.5891448</v>
+        <v>-401607972.5891448</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>165537076.9125158</v>
+        <v>-165537076.9125158</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>822908.0458891495</v>
+        <v>-822908.0458891495</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14402131.48054807</v>
+        <v>-14402131.48054807</v>
       </c>
       <c r="C4">
-        <v>2391013.283629843</v>
+        <v>-2391013.283629843</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>367511719.8338048</v>
+        <v>-367511719.8338048</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>134739730.0348631</v>
+        <v>-134739730.0348631</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>864536.7296944965</v>
+        <v>-864536.7296944965</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>15197315.0095247</v>
+        <v>-15197315.0095247</v>
       </c>
       <c r="C4">
-        <v>2511968.153928947</v>
+        <v>-2511968.153928947</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>334742083.2194709</v>
+        <v>-334742083.2194709</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>112707061.75664</v>
+        <v>-112707061.75664</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>666828.6091422125</v>
+        <v>-666828.6091422125</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11619520.11274313</v>
+        <v>-11619520.11274313</v>
       </c>
       <c r="C4">
-        <v>1937514.246370873</v>
+        <v>-1937514.246370873</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>275944229.799206</v>
+        <v>-275944229.799206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>97227334.02137147</v>
+        <v>-97227334.02137147</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.122621123775819E-09</v>
+        <v>-5.122621123775819E-09</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.013141200381628E-06</v>
+        <v>-3.013141200381628E-06</v>
       </c>
       <c r="C4">
-        <v>1.488411155430692E-08</v>
+        <v>-1.488411155430692E-08</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1563.714002884434</v>
+        <v>-1563.714002884434</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>870.0556683793224</v>
+        <v>-870.0556683793224</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>304586.3723886654</v>
+        <v>-304586.3723886654</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5181497.802806737</v>
+        <v>-5181497.802806737</v>
       </c>
       <c r="C4">
-        <v>884995.6760442555</v>
+        <v>-884995.6760442555</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>200619705.4698463</v>
+        <v>-200619705.4698463</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>86418209.43248725</v>
+        <v>-86418209.43248725</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>67092.06869095168</v>
+        <v>-67092.06869095168</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1053764.089411625</v>
+        <v>-1053764.089411625</v>
       </c>
       <c r="C4">
-        <v>194940.4046632455</v>
+        <v>-194940.4046632455</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>151082877.175994</v>
+        <v>-151082877.175994</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>78867230.04631662</v>
+        <v>-78867230.04631662</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4961.746633747913</v>
+        <v>-4961.746633747913</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>52211.90024829352</v>
+        <v>-52211.90024829352</v>
       </c>
       <c r="C4">
-        <v>14416.68017533883</v>
+        <v>-14416.68017533883</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>132841120.4799403</v>
+        <v>-132841120.4799403</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>73633736.47178507</v>
+        <v>-73633736.47178507</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>239.8094739836923</v>
+        <v>-239.8094739836923</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3879.794742415037</v>
+        <v>-3879.794742415037</v>
       </c>
       <c r="C4">
-        <v>696.7821504476238</v>
+        <v>-696.7821504476238</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>126148603.7435927</v>
+        <v>-126148603.7435927</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>70170470.50932328</v>
+        <v>-70170470.50932328</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>538.2038217299248</v>
+        <v>-538.2038217299248</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13624.94444303237</v>
+        <v>-13624.94444303237</v>
       </c>
       <c r="C4">
-        <v>1563.786492895641</v>
+        <v>-1563.786492895641</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>122714168.1921501</v>
+        <v>-122714168.1921501</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>68215828.64500614</v>
+        <v>-68215828.64500614</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2075.176448036642</v>
+        <v>-2075.176448036642</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>51460.27682900142</v>
+        <v>-51460.27682900142</v>
       </c>
       <c r="C4">
-        <v>6029.56123459727</v>
+        <v>-6029.56123459727</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>122071965.9531509</v>
+        <v>-122071965.9531509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>67683700.43211108</v>
+        <v>-67683700.43211108</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7329.601917727448</v>
+        <v>-7329.601917727448</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>178246.960096939</v>
+        <v>-178246.960096939</v>
       </c>
       <c r="C4">
-        <v>21296.63895808578</v>
+        <v>-21296.63895808578</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>124703468.0659708</v>
+        <v>-124703468.0659708</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>68560702.49605919</v>
+        <v>-68560702.49605919</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>23747.76613822656</v>
+        <v>-23747.76613822656</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>565663.0542716744</v>
+        <v>-565663.0542716744</v>
       </c>
       <c r="C4">
-        <v>69000.6916042275</v>
+        <v>-69000.6916042275</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>131993167.3310896</v>
+        <v>-131993167.3310896</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>70817629.90171407</v>
+        <v>-70817629.90171407</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>69658.77649249443</v>
+        <v>-69658.77649249443</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1614500.728424268</v>
+        <v>-1614500.728424268</v>
       </c>
       <c r="C4">
-        <v>202398.1424741014</v>
+        <v>-202398.1424741014</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>147123672.2047312</v>
+        <v>-147123672.2047312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>74345983.75121818</v>
+        <v>-74345983.75121818</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>177433.499277704</v>
+        <v>-177433.499277704</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3934496.050129064</v>
+        <v>-3934496.050129064</v>
       </c>
       <c r="C4">
-        <v>515544.6660817617</v>
+        <v>-515544.6660817617</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>174955734.2340034</v>
+        <v>-174955734.2340034</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>78930800.10502532</v>
+        <v>-78930800.10502532</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.438419239981145E-07</v>
+        <v>-2.438419239981145E-07</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001193076084051628</v>
+        <v>-0.0001193076084051628</v>
       </c>
       <c r="C4">
-        <v>7.084986983635446E-07</v>
+        <v>-7.084986983635446E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4440.163854357177</v>
+        <v>-4440.163854357177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2470.52147177912</v>
+        <v>-2470.52147177912</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>361654.5127778391</v>
+        <v>-361654.5127778391</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7475476.590907302</v>
+        <v>-7475476.590907302</v>
       </c>
       <c r="C4">
-        <v>1050810.899779409</v>
+        <v>-1050810.899779409</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>214921284.1525079</v>
+        <v>-214921284.1525079</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>84263844.81634839</v>
+        <v>-84263844.81634839</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>535731.0374491193</v>
+        <v>-535731.0374491193</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10312195.86987119</v>
+        <v>-10312195.86987119</v>
       </c>
       <c r="C4">
-        <v>1556601.656032649</v>
+        <v>-1556601.656032649</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>250192719.4381438</v>
+        <v>-250192719.4381438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>89990051.01939335</v>
+        <v>-89990051.01939335</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>579196.897123017</v>
+        <v>-579196.897123017</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10811355.6796393</v>
+        <v>-10811355.6796393</v>
       </c>
       <c r="C4">
-        <v>1682894.561277471</v>
+        <v>-1682894.561277471</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>265287169.8603365</v>
+        <v>-265287169.8603365</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>95769997.81460911</v>
+        <v>-95769997.81460911</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>582967.9136832259</v>
+        <v>-582967.9136832259</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10595822.8572834</v>
+        <v>-10595822.8572834</v>
       </c>
       <c r="C4">
-        <v>1693851.49715055</v>
+        <v>-1693851.49715055</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>273805735.5654699</v>
+        <v>-273805735.5654699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101336755.3908047</v>
+        <v>-101336755.3908047</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>648537.5407255406</v>
+        <v>-648537.5407255406</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11254805.03200591</v>
+        <v>-11254805.03200591</v>
       </c>
       <c r="C4">
-        <v>1884368.347780478</v>
+        <v>-1884368.347780478</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>289547792.2644833</v>
+        <v>-289547792.2644833</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>106528268.4765415</v>
+        <v>-106528268.4765415</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>733944.1511583236</v>
+        <v>-733944.1511583236</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12302198.77721346</v>
+        <v>-12302198.77721346</v>
       </c>
       <c r="C4">
-        <v>2132522.854319464</v>
+        <v>-2132522.854319464</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>307833698.7058461</v>
+        <v>-307833698.7058461</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>111285979.9119435</v>
+        <v>-111285979.9119435</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>756390.9994350758</v>
+        <v>-756390.9994350758</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12612599.11666254</v>
+        <v>-12612599.11666254</v>
       </c>
       <c r="C4">
-        <v>2197743.643778809</v>
+        <v>-2197743.643778809</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>318445107.6634183</v>
+        <v>-318445107.6634183</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115623548.3893617</v>
+        <v>-115623548.3893617</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>692036.3401774666</v>
+        <v>-692036.3401774666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11822626.77374328</v>
+        <v>-11822626.77374328</v>
       </c>
       <c r="C4">
-        <v>2010756.961710151</v>
+        <v>-2010756.961710151</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>318216023.0688482</v>
+        <v>-318216023.0688482</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>119580624.5184392</v>
+        <v>-119580624.5184392</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>572836.6137308044</v>
+        <v>-572836.6137308044</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10092952.27897899</v>
+        <v>-10092952.27897899</v>
       </c>
       <c r="C4">
-        <v>1664414.340851386</v>
+        <v>-1664414.340851386</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>309139274.2643543</v>
+        <v>-309139274.2643543</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>123181043.05954</v>
+        <v>-123181043.05954</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>437279.8042249971</v>
+        <v>-437279.8042249971</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7814699.495465892</v>
+        <v>-7814699.495465892</v>
       </c>
       <c r="C4">
-        <v>1270545.142665753</v>
+        <v>-1270545.142665753</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>294984170.9690345</v>
+        <v>-294984170.9690345</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>126410485.5517204</v>
+        <v>-126410485.5517204</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.735242569831897E-06</v>
+        <v>-6.735242569831897E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.002680188788795318</v>
+        <v>-0.002680188788795318</v>
       </c>
       <c r="C4">
-        <v>1.956968890191964E-05</v>
+        <v>-1.956968890191964E-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11194.01547393626</v>
+        <v>-11194.01547393626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6228.376496054954</v>
+        <v>-6228.376496054954</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>322861.2109807496</v>
+        <v>-322861.2109807496</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5791487.387037805</v>
+        <v>-5791487.387037805</v>
       </c>
       <c r="C4">
-        <v>938094.4178151564</v>
+        <v>-938094.4178151564</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>282450001.1240858</v>
+        <v>-282450001.1240858</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>129218266.2640459</v>
+        <v>-129218266.2640459</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>297518.0298968326</v>
+        <v>-297518.0298968326</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5372735.660157251</v>
+        <v>-5372735.660157251</v>
       </c>
       <c r="C4">
-        <v>864458.1434783216</v>
+        <v>-864458.1434783216</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>282938830.0574903</v>
+        <v>-282938830.0574903</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>131537224.031178</v>
+        <v>-131537224.031178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>362607.2477328941</v>
+        <v>-362607.2477328941</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6557413.668320399</v>
+        <v>-6557413.668320399</v>
       </c>
       <c r="C4">
-        <v>1053579.133660089</v>
+        <v>-1053579.133660089</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>296372065.9837224</v>
+        <v>-296372065.9837224</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>133309542.4404161</v>
+        <v>-133309542.4404161</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>434052.9112909139</v>
+        <v>-434052.9112909139</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7816795.453830038</v>
+        <v>-7816795.453830038</v>
       </c>
       <c r="C4">
-        <v>1261169.193665391</v>
+        <v>-1261169.193665391</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>309472690.2356102</v>
+        <v>-309472690.2356102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>134506891.655484</v>
+        <v>-134506891.655484</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>469591.9173689497</v>
+        <v>-469591.9173689497</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8422188.99159104</v>
+        <v>-8422188.99159104</v>
       </c>
       <c r="C4">
-        <v>1364430.106040808</v>
+        <v>-1364430.106040808</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>315900032.028733</v>
+        <v>-315900032.028733</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>135138579.4699346</v>
+        <v>-135138579.4699346</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>479018.9793225707</v>
+        <v>-479018.9793225707</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8583514.787241792</v>
+        <v>-8583514.787241792</v>
       </c>
       <c r="C4">
-        <v>1391821.052659096</v>
+        <v>-1391821.052659096</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>317505297.6009288</v>
+        <v>-317505297.6009288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>135247684.7682994</v>
+        <v>-135247684.7682994</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>480377.3148907736</v>
+        <v>-480377.3148907736</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8631348.4182641</v>
+        <v>-8631348.4182641</v>
       </c>
       <c r="C4">
-        <v>1395767.785715632</v>
+        <v>-1395767.785715632</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>317262674.0171764</v>
+        <v>-317262674.0171764</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>134899569.9029873</v>
+        <v>-134899569.9029873</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>482470.6862433333</v>
+        <v>-482470.6862433333</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8719444.715937985</v>
+        <v>-8719444.715937985</v>
       </c>
       <c r="C4">
-        <v>1401850.213438322</v>
+        <v>-1401850.213438322</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>316643686.4265394</v>
+        <v>-316643686.4265394</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>134168160.1708273</v>
+        <v>-134168160.1708273</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>494722.3331695217</v>
+        <v>-494722.3331695217</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9007740.486927891</v>
+        <v>-9007740.486927891</v>
       </c>
       <c r="C4">
-        <v>1437448.176896325</v>
+        <v>-1437448.176896325</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>317174201.6006504</v>
+        <v>-317174201.6006504</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>133124091.6340533</v>
+        <v>-133124091.6340533</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>527098.6774572334</v>
+        <v>-527098.6774572334</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9634315.045577653</v>
+        <v>-9634315.045577653</v>
       </c>
       <c r="C4">
-        <v>1531519.76807107</v>
+        <v>-1531519.76807107</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>320212917.9011635</v>
+        <v>-320212917.9011635</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>131826688.2774587</v>
+        <v>-131826688.2774587</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-21960191.70607528</v>
+        <v>-21960191.70607529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-191247396.6683122</v>
+        <v>-191247396.6683123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1557203816.911706</v>
+        <v>-1557203816.911705</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2348373268.408773</v>
+        <v>-2348373268.408772</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-980029771.1085292</v>
+        <v>-980029771.1085293</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-315900032.028733</v>
+        <v>-315900032.0287331</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-316643686.4265394</v>
+        <v>-316643686.4265393</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-21960191.70607529</v>
+        <v>-21960191.70607528</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-191247396.6683123</v>
+        <v>-191247396.6683122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-450511331.5890766</v>
+        <v>-450511331.5890767</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1557203816.911705</v>
+        <v>-1557203816.911706</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2348373268.408772</v>
+        <v>-2348373268.408773</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-980029771.1085293</v>
+        <v>-980029771.1085292</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14060,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309472690.2356101</v>
+        <v>-309472690.2356102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-315900032.0287331</v>
+        <v>-315900032.028733</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14632,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-316643686.4265393</v>
+        <v>-316643686.4265394</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14918,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-320212917.9011636</v>
+        <v>-320212917.9011635</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2763,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-21960191.70607528</v>
+        <v>-21960191.70607529</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4336,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-191247396.6683122</v>
+        <v>-191247396.6683123</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5766,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-450511331.5890767</v>
+        <v>-450511331.5890766</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6624,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1557203816.911706</v>
+        <v>-1557203816.911705</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8197,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2348373268.408773</v>
+        <v>-2348373268.408772</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9055,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-980029771.1085292</v>
+        <v>-980029771.1085293</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14060,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309472690.2356102</v>
+        <v>-309472690.2356101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14203,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-315900032.028733</v>
+        <v>-315900032.0287331</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14632,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-316643686.4265394</v>
+        <v>-316643686.4265393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14918,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-320212917.9011635</v>
+        <v>-320212917.9011636</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.000122103023276921</v>
+        <v>-1.22103023276921E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.03975420930705176</v>
+        <v>-3.975420930705179E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0003547783401619692</v>
+        <v>-3.547783401619692E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-25458.74811064477</v>
+        <v>-0.02545874811064477</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-14165.1687099659</v>
+        <v>-0.0141651687099659</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-561883.2955033459</v>
+        <v>-0.5618832955033471</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10202876.3550067</v>
+        <v>-10.2028763550067</v>
       </c>
       <c r="E7">
-        <v>-1632588.756556144</v>
+        <v>-1.632588756556147</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-322509219.5143732</v>
+        <v>-322.5092195143729</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130320025.6729218</v>
+        <v>-130.3200256729217</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-564808.9916065625</v>
+        <v>-0.5648089916065638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10066331.24000254</v>
+        <v>-10.0663312400025</v>
       </c>
       <c r="E7">
-        <v>-1641089.558415598</v>
+        <v>-1.641089558415602</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-318548095.4131858</v>
+        <v>-318.5480954131853</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128632734.9544906</v>
+        <v>-128.6327349544904</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.001581839485639238</v>
+        <v>-1.581839485639237E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.429341158426107</v>
+        <v>-4.293411584261072E-07</v>
       </c>
       <c r="E7">
-        <v>-0.004596138343315092</v>
+        <v>-4.596138343315091E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-53593.67416322116</v>
+        <v>-0.05359367416322115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-29817.92893351147</v>
+        <v>-0.02981792893351148</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01560163851880217</v>
+        <v>-1.560163851880216E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.609368859268707</v>
+        <v>-3.609368859268708E-06</v>
       </c>
       <c r="E7">
-        <v>-0.04533158368203881</v>
+        <v>-4.53315836820388E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-107024.6826267145</v>
+        <v>-0.1070246826267145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-59533.97964547844</v>
+        <v>-0.05953397964547844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1229571426201327</v>
+        <v>-1.229571426201327E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-24.77286889901492</v>
+        <v>-2.477286889901494E-05</v>
       </c>
       <c r="E7">
-        <v>-0.357260039916427</v>
+        <v>-3.572600399164269E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-205913.4190447586</v>
+        <v>-0.2059134190447585</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114468.3615914362</v>
+        <v>-0.1144683615914362</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8038350544733925</v>
+        <v>-8.038350544733925E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-143.7947935162513</v>
+        <v>-0.0001437947935162514</v>
       </c>
       <c r="E7">
-        <v>-2.335595456496609</v>
+        <v>-2.335595456496608E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-385619.3886050063</v>
+        <v>-0.3856193886050062</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-213963.4393407881</v>
+        <v>-0.213963439340788</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.488909742243193</v>
+        <v>-4.488909742243193E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-725.0347462138328</v>
+        <v>-0.0007250347462138331</v>
       </c>
       <c r="E7">
-        <v>-13.04282158418061</v>
+        <v>-1.304282158418061E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-705187.026839133</v>
+        <v>-0.7051870268391329</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-389355.0314963615</v>
+        <v>-0.3893550314963616</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-21.91591407448742</v>
+        <v>-2.191591407448742E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3242.105312070625</v>
+        <v>-0.003242105312070626</v>
       </c>
       <c r="E7">
-        <v>-63.67812532245969</v>
+        <v>-6.367812532245968E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1257051.870817367</v>
+        <v>-1.257051870817367</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-685928.2196966197</v>
+        <v>-0.6859282196966195</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-95.29251412821318</v>
+        <v>-9.529251412821317E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13065.75912841654</v>
+        <v>-0.01306575912841654</v>
       </c>
       <c r="E7">
-        <v>-276.8786479233603</v>
+        <v>-0.0002768786479233602</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2188231.993150206</v>
+        <v>-2.188231993150207</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1163041.822878175</v>
+        <v>-1.163041822878175</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-374.4115355669207</v>
+        <v>-0.0003744115355669206</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-48018.49952887954</v>
+        <v>-0.04801849952887955</v>
       </c>
       <c r="E7">
-        <v>-1087.87726594345</v>
+        <v>-0.001087877265943449</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3763126.094411244</v>
+        <v>-3.763126094411244</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1893202.950617971</v>
+        <v>-1.893202950617971</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1343.159304138789</v>
+        <v>-0.001343159304138789</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-161932.1243826597</v>
+        <v>-0.1619321243826597</v>
       </c>
       <c r="E7">
-        <v>-3902.637426222796</v>
+        <v>-0.003902637426222796</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6538170.999204667</v>
+        <v>-6.538170999204667</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2960250.63460856</v>
+        <v>-2.960250634608561</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4417.1153950669</v>
+        <v>-0.004417115395066899</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-498874.8712660266</v>
+        <v>-0.4988748712660267</v>
       </c>
       <c r="E7">
-        <v>-12834.21840105999</v>
+        <v>-0.01283421840105999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-11767662.37531125</v>
+        <v>-11.76766237531125</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4456249.126467519</v>
+        <v>-4.456249126467521</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-13200.49646376041</v>
+        <v>-0.01320049646376041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1366172.794174894</v>
+        <v>-1.366172794174894</v>
       </c>
       <c r="E7">
-        <v>-38354.90800342906</v>
+        <v>-0.03835490800342906</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-21960191.70607529</v>
+        <v>-21.96019170607529</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6476755.606746423</v>
+        <v>-6.476755606746424</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-34586.830002567</v>
+        <v>-0.03458683000256699</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3093659.558444425</v>
+        <v>-3.093659558444425</v>
       </c>
       <c r="E7">
-        <v>-100494.3023560189</v>
+        <v>-0.1004943023560189</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-39863276.82191108</v>
+        <v>-39.86327682191108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9114275.465149017</v>
+        <v>-9.114275465149015</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-72872.95190041601</v>
+        <v>-0.072872951900416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5132092.468677185</v>
+        <v>-5.132092468677182</v>
       </c>
       <c r="E7">
-        <v>-211737.1398683401</v>
+        <v>-0.2117371398683401</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61705821.21705119</v>
+        <v>-61.70582121705118</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-12449591.89355991</v>
+        <v>-12.44959189355992</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-105843.2150653634</v>
+        <v>-0.1058432150653633</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6046971.587271209</v>
+        <v>-6.046971587271208</v>
       </c>
       <c r="E7">
-        <v>-307534.4012828676</v>
+        <v>-0.3075344012828676</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-76553505.18693681</v>
+        <v>-76.55350518693679</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-16540539.42936921</v>
+        <v>-16.54053942936921</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-90621.69697466891</v>
+        <v>-0.09062169697466889</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6323617.146445098</v>
+        <v>-6.323617146445094</v>
       </c>
       <c r="E7">
-        <v>-263307.2824283693</v>
+        <v>-0.2633072824283692</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-86959230.33359897</v>
+        <v>-86.95923033359894</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21408717.19090537</v>
+        <v>-21.40871719090536</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-53272.35366687577</v>
+        <v>-0.05327235366687576</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6898635.303087421</v>
+        <v>-6.898635303087421</v>
       </c>
       <c r="E7">
-        <v>-154786.3165319994</v>
+        <v>-0.1547863165319993</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-100361988.8258383</v>
+        <v>-100.3619888258383</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-27027424.69301206</v>
+        <v>-27.02742469301206</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-60347.6015011066</v>
+        <v>-0.06034760150110662</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7544690.670498834</v>
+        <v>-7.544690670498833</v>
       </c>
       <c r="E7">
-        <v>-175343.9130230392</v>
+        <v>-0.1753439130230392</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-116563003.8104542</v>
+        <v>-116.5630038104542</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-33315157.19293903</v>
+        <v>-33.31515719293903</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-102420.2495612959</v>
+        <v>-0.1024202495612959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8297308.649267946</v>
+        <v>-8.297308649267951</v>
       </c>
       <c r="E7">
-        <v>-297588.7505743623</v>
+        <v>-0.2975887505743624</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-135344631.8269498</v>
+        <v>-135.3446318269498</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-40133161.1644818</v>
+        <v>-40.13316116448182</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-148400.4384658646</v>
+        <v>-0.1484004384658645</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8943181.603246484</v>
+        <v>-8.943181603246487</v>
       </c>
       <c r="E7">
-        <v>-431187.2042580231</v>
+        <v>-0.431187204258023</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-154057882.5609559</v>
+        <v>-154.057882560956</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-47295212.86645786</v>
+        <v>-47.29521286645785</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.5540641216124529</v>
+        <v>-5.540641216124528E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.3082831231305157</v>
+        <v>-3.082831231305156E-07</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-210112.8729941108</v>
+        <v>-0.2101128729941109</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9530704.503060035</v>
+        <v>-9.530704503060035</v>
       </c>
       <c r="E7">
-        <v>-610496.7291305632</v>
+        <v>-0.6104967291305632</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-172983871.2456602</v>
+        <v>-172.9838712456601</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-54601288.0104876</v>
+        <v>-54.60128801048759</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-273014.0538768016</v>
+        <v>-0.2730140538768018</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10028637.71548144</v>
+        <v>-10.02863771548145</v>
       </c>
       <c r="E7">
-        <v>-793260.2344794667</v>
+        <v>-0.793260234479467</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-191247396.6683123</v>
+        <v>-191.2473966683123</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-61887625.3826226</v>
+        <v>-61.88762538262261</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-305056.1098675992</v>
+        <v>-0.3050561098675992</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9702797.473919403</v>
+        <v>-9.702797473919411</v>
       </c>
       <c r="E7">
-        <v>-886360.5290889669</v>
+        <v>-0.8863605290889671</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-202584530.8796814</v>
+        <v>-202.5845308796814</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-69090950.09059693</v>
+        <v>-69.09095009059691</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-378861.2672581258</v>
+        <v>-0.3788612672581258</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9560491.990120066</v>
+        <v>-9.560491990120074</v>
       </c>
       <c r="E7">
-        <v>-1100806.253131519</v>
+        <v>-1.100806253131519</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-216333011.2063746</v>
+        <v>-216.3330112063747</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-76325709.44739386</v>
+        <v>-76.32570944739389</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-608374.7061584517</v>
+        <v>-0.6083747061584518</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9510290.323046086</v>
+        <v>-9.510290323046087</v>
       </c>
       <c r="E7">
-        <v>-1767672.598555693</v>
+        <v>-1.767672598555694</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-235257137.2863235</v>
+        <v>-235.2571372863235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83966945.65373576</v>
+        <v>-83.96694565373576</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-918451.2331351876</v>
+        <v>-0.9184512331351882</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9345632.910938939</v>
+        <v>-9.34563291093894</v>
       </c>
       <c r="E7">
-        <v>-2668620.278733138</v>
+        <v>-2.668620278733139</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-257301339.4292854</v>
+        <v>-257.3013394292855</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92724773.97638944</v>
+        <v>-92.72477397638941</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1230110.216832989</v>
+        <v>-1.230110216832989</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9361694.340986662</v>
+        <v>-9.361694340986665</v>
       </c>
       <c r="E7">
-        <v>-3574165.890671898</v>
+        <v>-3.574165890671897</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284677774.9296958</v>
+        <v>-284.6777749296958</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103692126.925523</v>
+        <v>-103.692126925523</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1462569.285311276</v>
+        <v>-1.462569285311276</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9089141.143400727</v>
+        <v>-9.089141143400729</v>
       </c>
       <c r="E7">
-        <v>-4249590.955973394</v>
+        <v>-4.249590955973393</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-314647383.3390787</v>
+        <v>-314.6473833390788</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118344998.4973733</v>
+        <v>-118.3449984973735</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1326088.861308203</v>
+        <v>-1.326088861308202</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8695186.603756141</v>
+        <v>-8.695186603756135</v>
       </c>
       <c r="E7">
-        <v>-3853038.135306552</v>
+        <v>-3.853038135306549</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-344642193.5156105</v>
+        <v>-344.6421935156105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-138477752.4282406</v>
+        <v>-138.4777524282406</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1240579.986507801</v>
+        <v>-1.2405799865078</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8113133.964652288</v>
+        <v>-8.113133964652278</v>
       </c>
       <c r="E7">
-        <v>-3604586.492942193</v>
+        <v>-3.604586492942193</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-387882893.3642213</v>
+        <v>-387.8828933642212</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-166059805.4135696</v>
+        <v>-166.0598054135696</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-16.00394783164922</v>
+        <v>-1.600394783164921E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8.904649890702789</v>
+        <v>-8.904649890702783E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1196771.827929852</v>
+        <v>-1.196771827929852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7740634.817215281</v>
+        <v>-7.740634817215276</v>
       </c>
       <c r="E7">
-        <v>-3477299.015787854</v>
+        <v>-3.477299015787855</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-450511331.5890766</v>
+        <v>-450.5113315890766</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-203013886.8530733</v>
+        <v>-203.0138868530733</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1062644.811044619</v>
+        <v>-1.06264481104462</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8569673.73889786</v>
+        <v>-8.569673738897855</v>
       </c>
       <c r="E7">
-        <v>-3087584.173809706</v>
+        <v>-3.087584173809709</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-539490067.9099478</v>
+        <v>-539.4900679099479</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-250952823.9388827</v>
+        <v>-250.9528239388827</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-915484.1246367355</v>
+        <v>-0.9154841246367359</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10803132.97248339</v>
+        <v>-10.80313297248339</v>
       </c>
       <c r="E7">
-        <v>-2659999.150444005</v>
+        <v>-2.659999150444006</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-660037698.5484008</v>
+        <v>-660.0376985484008</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-310912560.5223495</v>
+        <v>-310.9125605223497</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-838702.5077930951</v>
+        <v>-0.8387025077930949</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15347073.07160618</v>
+        <v>-15.34707307160618</v>
       </c>
       <c r="E7">
-        <v>-2436905.128300428</v>
+        <v>-2.436905128300427</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-821202637.46306</v>
+        <v>-821.20263746306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-383113519.7213705</v>
+        <v>-383.1135197213705</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1159493.456055162</v>
+        <v>-1.159493456055162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-22581656.10023229</v>
+        <v>-22.58165610023229</v>
       </c>
       <c r="E7">
-        <v>-3368984.262043809</v>
+        <v>-3.368984262043808</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1032287127.483734</v>
+        <v>-1032.287127483734</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-466774293.298962</v>
+        <v>-466.774293298962</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1726213.984804964</v>
+        <v>-1.726213984804963</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-31770989.08591301</v>
+        <v>-31.77098908591302</v>
       </c>
       <c r="E7">
-        <v>-5015627.916964441</v>
+        <v>-5.015627916964439</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1280814166.960411</v>
+        <v>-1280.81416696041</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-559993124.4466887</v>
+        <v>-559.9931244466882</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2365338.059407942</v>
+        <v>-2.365338059407942</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-42930892.17743317</v>
+        <v>-42.93089217743317</v>
       </c>
       <c r="E7">
-        <v>-6872644.821705218</v>
+        <v>-6.872644821705219</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1557203816.911705</v>
+        <v>-1557.203816911705</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-659713516.9444343</v>
+        <v>-659.713516944434</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3400569.905429624</v>
+        <v>-3.400569905429624</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-61349852.76497231</v>
+        <v>-61.34985276497229</v>
       </c>
       <c r="E7">
-        <v>-9880578.828232018</v>
+        <v>-9.880578828232016</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1900559251.246716</v>
+        <v>-1900.559251246716</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-761791990.0416964</v>
+        <v>-761.7919900416962</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4567080.209515738</v>
+        <v>-4.567080209515738</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-81819335.62128381</v>
+        <v>-81.81933562128383</v>
       </c>
       <c r="E7">
-        <v>-13269951.00230929</v>
+        <v>-13.26995100230929</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2257284150.557414</v>
+        <v>-2257.284150557414</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-861189030.7739948</v>
+        <v>-861.189030773995</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4987512.179105209</v>
+        <v>-4.987512179105209</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88946521.64584255</v>
+        <v>-88.94652164584255</v>
       </c>
       <c r="E7">
-        <v>-14491543.65676548</v>
+        <v>-14.49154365676548</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2483384772.989522</v>
+        <v>-2483.384772989521</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-952299580.1183124</v>
+        <v>-952.2995801183121</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-113.7843425054972</v>
+        <v>-0.0001137843425054972</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-63.30998724274475</v>
+        <v>-6.330998724274472E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4983558.101801769</v>
+        <v>-4.983558101801768</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88585696.19951499</v>
+        <v>-88.58569619951497</v>
       </c>
       <c r="E7">
-        <v>-14480054.82590005</v>
+        <v>-14.48005482590005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2619251073.854652</v>
+        <v>-2619.251073854653</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1029418878.517974</v>
+        <v>-1029.418878517974</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4910148.500227395</v>
+        <v>-4.910148500227396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-86965789.47584507</v>
+        <v>-86.9657894758451</v>
       </c>
       <c r="E7">
-        <v>-14266758.41521707</v>
+        <v>-14.26675841521707</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2709652145.134197</v>
+        <v>-2709.652145134198</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1087305012.65332</v>
+        <v>-1087.30501265332</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4758307.364809091</v>
+        <v>-4.758307364809093</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-83820668.61784208</v>
+        <v>-83.82066861784209</v>
       </c>
       <c r="E7">
-        <v>-13825574.04036468</v>
+        <v>-13.82557404036468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2744881823.517621</v>
+        <v>-2744.881823517621</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1121762286.781056</v>
+        <v>-1121.762286781057</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4590419.495511012</v>
+        <v>-4.590419495511012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80064472.24665587</v>
+        <v>-80.06447224665588</v>
       </c>
       <c r="E7">
-        <v>-13337764.82807501</v>
+        <v>-13.33776482807501</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2728388213.579568</v>
+        <v>-2728.388213579569</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1130145542.504937</v>
+        <v>-1130.145542504937</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4514336.217361049</v>
+        <v>-4.514336217361052</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-77513063.30903453</v>
+        <v>-77.51306330903454</v>
       </c>
       <c r="E7">
-        <v>-13116699.87479447</v>
+        <v>-13.11669987479448</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2674696989.010839</v>
+        <v>-2674.69698901084</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1111688054.965704</v>
+        <v>-1111.688054965704</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4347429.574465793</v>
+        <v>-4.347429574465793</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-73315090.03150019</v>
+        <v>-73.3150900315002</v>
       </c>
       <c r="E7">
-        <v>-12631741.68015509</v>
+        <v>-12.63174168015509</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2560668481.036726</v>
+        <v>-2560.668481036726</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1067588597.544329</v>
+        <v>-1067.588597544328</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3763783.458326468</v>
+        <v>-3.763783458326466</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-62630271.85732496</v>
+        <v>-62.63027185732497</v>
       </c>
       <c r="E7">
-        <v>-10935919.62130008</v>
+        <v>-10.93591962130007</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2348373268.408772</v>
+        <v>-2348.373268408773</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1000848097.246979</v>
+        <v>-1000.848097246979</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2530213.668208383</v>
+        <v>-2.530213668208382</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-41715167.36391628</v>
+        <v>-41.71516736391625</v>
       </c>
       <c r="E7">
-        <v>-7351701.713611604</v>
+        <v>-7.351701713611602</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2012737270.00706</v>
+        <v>-2012.737270007059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-915903520.5361528</v>
+        <v>-915.9035205361524</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1095240.263227206</v>
+        <v>-1.095240263227206</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-18262547.35211006</v>
+        <v>-18.26254735211005</v>
       </c>
       <c r="E7">
-        <v>-3182292.397339441</v>
+        <v>-3.182292397339439</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1630617422.631393</v>
+        <v>-1630.617422631393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-818143758.1259706</v>
+        <v>-818.1437581259707</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-503265.7614858455</v>
+        <v>-0.5032657614858465</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9742585.429295538</v>
+        <v>-9.74258542929554</v>
       </c>
       <c r="E7">
-        <v>-1462271.668043501</v>
+        <v>-1.462271668043504</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1365655569.746066</v>
+        <v>-1365.655569746066</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-713394649.5323939</v>
+        <v>-713.3946495323941</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.794046695302458E-11</v>
+        <v>-4.794046695302455E-17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8470,16 +8470,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.352996951768433E-08</v>
+        <v>-3.352996951768435E-14</v>
       </c>
       <c r="E7">
-        <v>-1.392941700846368E-10</v>
+        <v>-1.392941700846367E-16</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-476.5801160294369</v>
+        <v>-0.000476580116029437</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-265.170764148854</v>
+        <v>-0.000265170764148854</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-432682.3087467159</v>
+        <v>-0.4326823087467158</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9155690.802284759</v>
+        <v>-9.15569080228477</v>
       </c>
       <c r="E7">
-        <v>-1257186.818105782</v>
+        <v>-1.257186818105782</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1169205139.714041</v>
+        <v>-1169.205139714041</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-607430361.050492</v>
+        <v>-607.4303610504923</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-368335.4664811192</v>
+        <v>-0.3683354664811203</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8543793.481839141</v>
+        <v>-8.543793481839147</v>
       </c>
       <c r="E7">
-        <v>-1070222.848819959</v>
+        <v>-1.070222848819962</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-980029771.1085293</v>
+        <v>-980.0297711085293</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-505531733.2520038</v>
+        <v>-505.5317332520038</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-244199.9991005266</v>
+        <v>-0.2441999991005279</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7142505.177720623</v>
+        <v>-7.142505177720622</v>
       </c>
       <c r="E7">
-        <v>-709539.1090518121</v>
+        <v>-0.7095391090518162</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-798836737.2906076</v>
+        <v>-798.8367372906079</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-412095148.1082497</v>
+        <v>-412.0951481082499</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-164264.5857903978</v>
+        <v>-0.1642645857903969</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5899555.541894387</v>
+        <v>-5.899555541894432</v>
       </c>
       <c r="E7">
-        <v>-477281.5244872477</v>
+        <v>-0.4772815244872448</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-640812157.7605276</v>
+        <v>-640.8121577605278</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-330309101.6737792</v>
+        <v>-330.3091016737791</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-266580.9518425355</v>
+        <v>-0.2665809518425321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7069492.953970291</v>
+        <v>-7.069492953970309</v>
       </c>
       <c r="E7">
-        <v>-774568.4347143342</v>
+        <v>-0.774568434714324</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-528987936.2220789</v>
+        <v>-528.9879362220788</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-261946156.3745015</v>
+        <v>-261.9461563745015</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-486339.4203660057</v>
+        <v>-0.4863394203660006</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9472189.42928946</v>
+        <v>-9.472189429289434</v>
       </c>
       <c r="E7">
-        <v>-1413091.074096266</v>
+        <v>-1.413091074096252</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-453743662.1272036</v>
+        <v>-453.7436621272037</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-207333164.6083124</v>
+        <v>-207.3331646083126</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-682435.5668947408</v>
+        <v>-0.6824355668947376</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11963188.8674804</v>
+        <v>-11.96318886748041</v>
       </c>
       <c r="E7">
-        <v>-1982861.285435273</v>
+        <v>-1.982861285435264</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-401607972.5891448</v>
+        <v>-401.607972589145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-165537076.9125158</v>
+        <v>-165.5370769125159</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-822908.0458891495</v>
+        <v>-0.8229080458891489</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14402131.48054807</v>
+        <v>-14.40213148054807</v>
       </c>
       <c r="E7">
-        <v>-2391013.283629843</v>
+        <v>-2.391013283629841</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-367511719.8338048</v>
+        <v>-367.5117198338049</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134739730.0348631</v>
+        <v>-134.7397300348632</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-864536.7296944965</v>
+        <v>-0.8645367296944947</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15197315.0095247</v>
+        <v>-15.19731500952465</v>
       </c>
       <c r="E7">
-        <v>-2511968.153928947</v>
+        <v>-2.511968153928942</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-334742083.2194709</v>
+        <v>-334.7420832194707</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-112707061.75664</v>
+        <v>-112.7070617566401</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-666828.6091422125</v>
+        <v>-0.6668286091422116</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11619520.11274313</v>
+        <v>-11.61952011274312</v>
       </c>
       <c r="E7">
-        <v>-1937514.246370873</v>
+        <v>-1.93751424637087</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275944229.799206</v>
+        <v>-275.9442297992061</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-97227334.02137147</v>
+        <v>-97.22733402137158</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.122621123775819E-09</v>
+        <v>-5.122621123775817E-15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9988,16 +9988,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.013141200381628E-06</v>
+        <v>-3.01314120038163E-12</v>
       </c>
       <c r="E7">
-        <v>-1.488411155430692E-08</v>
+        <v>-1.488411155430691E-14</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1563.714002884434</v>
+        <v>-0.001563714002884433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-870.0556683793224</v>
+        <v>-0.0008700556683793222</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-304586.3723886654</v>
+        <v>-0.3045863723886648</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5181497.802806737</v>
+        <v>-5.181497802806754</v>
       </c>
       <c r="E7">
-        <v>-884995.6760442555</v>
+        <v>-0.8849956760442537</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-200619705.4698463</v>
+        <v>-200.6197054698467</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86418209.43248725</v>
+        <v>-86.41820943248743</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-67092.06869095168</v>
+        <v>-0.06709206869095038</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1053764.089411625</v>
+        <v>-1.053764089411652</v>
       </c>
       <c r="E7">
-        <v>-194940.4046632455</v>
+        <v>-0.1949404046632417</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-151082877.175994</v>
+        <v>-151.0828771759943</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-78867230.04631662</v>
+        <v>-78.86723004631671</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4961.746633747913</v>
+        <v>-0.004961746633747325</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-52211.90024829352</v>
+        <v>-0.05221190024830498</v>
       </c>
       <c r="E7">
-        <v>-14416.68017533883</v>
+        <v>-0.01441668017533712</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-132841120.4799403</v>
+        <v>-132.8411204799405</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-73633736.47178507</v>
+        <v>-73.63373647178517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-239.8094739836923</v>
+        <v>-0.0002398094739836681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3879.794742415037</v>
+        <v>-0.003879794742415539</v>
       </c>
       <c r="E7">
-        <v>-696.7821504476238</v>
+        <v>-0.0006967821504475536</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-126148603.7435927</v>
+        <v>-126.1486037435928</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-70170470.50932328</v>
+        <v>-70.17047050932337</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-538.2038217299248</v>
+        <v>-0.000538203821729927</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13624.94444303237</v>
+        <v>-0.01362494444303247</v>
       </c>
       <c r="E7">
-        <v>-1563.786492895641</v>
+        <v>-0.001563786492895647</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-122714168.1921501</v>
+        <v>-122.7141681921502</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-68215828.64500614</v>
+        <v>-68.21582864500617</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2075.176448036642</v>
+        <v>-0.002075176448036652</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-51460.27682900142</v>
+        <v>-0.05146027682900173</v>
       </c>
       <c r="E7">
-        <v>-6029.56123459727</v>
+        <v>-0.006029561234597299</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-122071965.9531509</v>
+        <v>-122.0719659531509</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-67683700.43211108</v>
+        <v>-67.6837004321111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-7329.601917727448</v>
+        <v>-0.00732960191772749</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-178246.960096939</v>
+        <v>-0.17824696009694</v>
       </c>
       <c r="E7">
-        <v>-21296.63895808578</v>
+        <v>-0.0212966389580859</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-124703468.0659708</v>
+        <v>-124.7034680659707</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-68560702.49605919</v>
+        <v>-68.56070249605912</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-23747.76613822656</v>
+        <v>-0.0237477661382267</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-565663.0542716744</v>
+        <v>-0.5656630542716771</v>
       </c>
       <c r="E7">
-        <v>-69000.6916042275</v>
+        <v>-0.06900069160422792</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-131993167.3310896</v>
+        <v>-131.9931673310894</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-70817629.90171407</v>
+        <v>-70.81762990171394</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-69658.77649249443</v>
+        <v>-0.06965877649249495</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1614500.728424268</v>
+        <v>-1.614500728424275</v>
       </c>
       <c r="E7">
-        <v>-202398.1424741014</v>
+        <v>-0.2023981424741029</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-147123672.2047312</v>
+        <v>-147.123672204731</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-74345983.75121818</v>
+        <v>-74.34598375121803</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-177433.499277704</v>
+        <v>-0.1774334992777055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3934496.050129064</v>
+        <v>-3.934496050129075</v>
       </c>
       <c r="E7">
-        <v>-515544.6660817617</v>
+        <v>-0.515544666081766</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-174955734.2340034</v>
+        <v>-174.9557342340033</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-78930800.10502532</v>
+        <v>-78.9308001050252</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.438419239981145E-07</v>
+        <v>-2.438419239981144E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0001193076084051628</v>
+        <v>-1.193076084051628E-10</v>
       </c>
       <c r="E7">
-        <v>-7.084986983635446E-07</v>
+        <v>-7.084986983635444E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4440.163854357177</v>
+        <v>-0.004440163854357177</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2470.52147177912</v>
+        <v>-0.002470521471779119</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-361654.5127778391</v>
+        <v>-0.3616545127778426</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7475476.590907302</v>
+        <v>-7.475476590907304</v>
       </c>
       <c r="E7">
-        <v>-1050810.899779409</v>
+        <v>-1.050810899779419</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-214921284.1525079</v>
+        <v>-214.9212841525078</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-84263844.81634839</v>
+        <v>-84.26384481634824</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-535731.0374491193</v>
+        <v>-0.5357310374491228</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10312195.86987119</v>
+        <v>-10.31219586987116</v>
       </c>
       <c r="E7">
-        <v>-1556601.656032649</v>
+        <v>-1.556601656032659</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250192719.4381438</v>
+        <v>-250.1927194381434</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89990051.01939335</v>
+        <v>-89.99005101939322</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-579196.897123017</v>
+        <v>-0.5791968971230164</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10811355.6796393</v>
+        <v>-10.81135567963927</v>
       </c>
       <c r="E7">
-        <v>-1682894.561277471</v>
+        <v>-1.682894561277469</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-265287169.8603365</v>
+        <v>-265.2871698603361</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95769997.81460911</v>
+        <v>-95.76999781460898</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-582967.9136832259</v>
+        <v>-0.5829679136832245</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10595822.8572834</v>
+        <v>-10.59582285728341</v>
       </c>
       <c r="E7">
-        <v>-1693851.49715055</v>
+        <v>-1.693851497150545</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-273805735.5654699</v>
+        <v>-273.8057355654698</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101336755.3908047</v>
+        <v>-101.3367553908047</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-648537.5407255406</v>
+        <v>-0.6485375407255385</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11254805.03200591</v>
+        <v>-11.25480503200588</v>
       </c>
       <c r="E7">
-        <v>-1884368.347780478</v>
+        <v>-1.884368347780471</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-289547792.2644833</v>
+        <v>-289.5477922644829</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106528268.4765415</v>
+        <v>-106.5282684765415</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-733944.1511583236</v>
+        <v>-0.7339441511583215</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12302198.77721346</v>
+        <v>-12.30219877721344</v>
       </c>
       <c r="E7">
-        <v>-2132522.854319464</v>
+        <v>-2.132522854319457</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-307833698.7058461</v>
+        <v>-307.8336987058461</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111285979.9119435</v>
+        <v>-111.2859799119436</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-756390.9994350758</v>
+        <v>-0.7563909994350777</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12612599.11666254</v>
+        <v>-12.61259911666259</v>
       </c>
       <c r="E7">
-        <v>-2197743.643778809</v>
+        <v>-2.197743643778816</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-318445107.6634183</v>
+        <v>-318.445107663419</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115623548.3893617</v>
+        <v>-115.6235483893618</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-692036.3401774666</v>
+        <v>-0.6920363401774711</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11822626.77374328</v>
+        <v>-11.82262677374333</v>
       </c>
       <c r="E7">
-        <v>-2010756.961710151</v>
+        <v>-2.010756961710164</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-318216023.0688482</v>
+        <v>-318.216023068849</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119580624.5184392</v>
+        <v>-119.5806245184394</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-572836.6137308044</v>
+        <v>-0.5728366137308061</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10092952.27897899</v>
+        <v>-10.09295227897897</v>
       </c>
       <c r="E7">
-        <v>-1664414.340851386</v>
+        <v>-1.664414340851391</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309139274.2643543</v>
+        <v>-309.1392742643545</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-123181043.05954</v>
+        <v>-123.1810430595402</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-437279.8042249971</v>
+        <v>-0.4372798042249946</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7814699.495465892</v>
+        <v>-7.814699495465857</v>
       </c>
       <c r="E7">
-        <v>-1270545.142665753</v>
+        <v>-1.270545142665745</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-294984170.9690345</v>
+        <v>-294.9841709690348</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-126410485.5517204</v>
+        <v>-126.4104855517207</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-6.735242569831897E-06</v>
+        <v>-6.735242569831898E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.002680188788795318</v>
+        <v>-2.68018878879532E-09</v>
       </c>
       <c r="E7">
-        <v>-1.956968890191964E-05</v>
+        <v>-1.956968890191964E-11</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-11194.01547393626</v>
+        <v>-0.01119401547393626</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6228.376496054954</v>
+        <v>-0.006228376496054953</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-322861.2109807496</v>
+        <v>-0.3228612109807465</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5791487.387037805</v>
+        <v>-5.791487387037804</v>
       </c>
       <c r="E7">
-        <v>-938094.4178151564</v>
+        <v>-0.9380944178151476</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-282450001.1240858</v>
+        <v>-282.450001124086</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129218266.2640459</v>
+        <v>-129.2182662640461</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-297518.0298968326</v>
+        <v>-0.2975180298968337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5372735.660157251</v>
+        <v>-5.372735660157294</v>
       </c>
       <c r="E7">
-        <v>-864458.1434783216</v>
+        <v>-0.8644581434783246</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-282938830.0574903</v>
+        <v>-282.9388300574911</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131537224.031178</v>
+        <v>-131.5372240311782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-362607.2477328941</v>
+        <v>-0.3626072477328968</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6557413.668320399</v>
+        <v>-6.557413668320395</v>
       </c>
       <c r="E7">
-        <v>-1053579.133660089</v>
+        <v>-1.053579133660097</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-296372065.9837224</v>
+        <v>-296.3720659837227</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-133309542.4404161</v>
+        <v>-133.3095424404163</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-434052.9112909139</v>
+        <v>-0.4340529112909151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7816795.453830038</v>
+        <v>-7.816795453829988</v>
       </c>
       <c r="E7">
-        <v>-1261169.193665391</v>
+        <v>-1.261169193665394</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309472690.2356101</v>
+        <v>-309.4726902356102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134506891.655484</v>
+        <v>-134.5068916554841</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-469591.9173689497</v>
+        <v>-0.4695919173689485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8422188.99159104</v>
+        <v>-8.422188991590987</v>
       </c>
       <c r="E7">
-        <v>-1364430.106040808</v>
+        <v>-1.364430106040805</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-315900032.0287331</v>
+        <v>-315.9000320287327</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-135138579.4699346</v>
+        <v>-135.1385794699347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-479018.9793225707</v>
+        <v>-0.4790189793225695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8583514.787241792</v>
+        <v>-8.583514787241853</v>
       </c>
       <c r="E7">
-        <v>-1391821.052659096</v>
+        <v>-1.391821052659093</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-317505297.6009288</v>
+        <v>-317.5052976009291</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-135247684.7682994</v>
+        <v>-135.2476847682994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-480377.3148907736</v>
+        <v>-0.4803773148907728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8631348.4182641</v>
+        <v>-8.631348418264201</v>
       </c>
       <c r="E7">
-        <v>-1395767.785715632</v>
+        <v>-1.39576778571563</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-317262674.0171764</v>
+        <v>-317.2626740171769</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134899569.9029873</v>
+        <v>-134.8995699029872</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-482470.6862433333</v>
+        <v>-0.4824706862433342</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8719444.715937985</v>
+        <v>-8.719444715938014</v>
       </c>
       <c r="E7">
-        <v>-1401850.213438322</v>
+        <v>-1.401850213438324</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-316643686.4265393</v>
+        <v>-316.6436864265395</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134168160.1708273</v>
+        <v>-134.1681601708273</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-494722.3331695217</v>
+        <v>-0.4947223331695242</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9007740.486927891</v>
+        <v>-9.00774048692784</v>
       </c>
       <c r="E7">
-        <v>-1437448.176896325</v>
+        <v>-1.437448176896333</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-317174201.6006504</v>
+        <v>-317.17420160065</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-133124091.6340533</v>
+        <v>-133.1240916340533</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-527098.6774572334</v>
+        <v>-0.5270986774572355</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9634315.045577653</v>
+        <v>-9.634315045577626</v>
       </c>
       <c r="E7">
-        <v>-1531519.76807107</v>
+        <v>-1.531519768071075</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-320212917.9011636</v>
+        <v>-320.2129179011631</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131826688.2774587</v>
+        <v>-131.8266882774585</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.02545874811064477</v>
+        <v>-0.02545881095880605</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0141651687099659</v>
+        <v>-0.01416520367889222</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5618832955033471</v>
+        <v>-3.048641095642443</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.2028763550067</v>
+        <v>-42.92857500556219</v>
       </c>
       <c r="E7">
-        <v>-1.632588756556147</v>
+        <v>-8.858026596185253</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-322.5092195143729</v>
+        <v>-2496.226388977918</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130.3200256729217</v>
+        <v>-1172.990803810278</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5648089916065638</v>
+        <v>-2.78063695002747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.0663312400025</v>
+        <v>-40.18501522262431</v>
       </c>
       <c r="E7">
-        <v>-1.641089558415602</v>
+        <v>-8.079322978649367</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-318.5480954131853</v>
+        <v>-2467.774989027533</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128.6327349544904</v>
+        <v>-1171.945536784306</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.05359367416322115</v>
+        <v>-0.05359393348729691</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.02981792893351148</v>
+        <v>-0.02981807322229117</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.1070246826267145</v>
+        <v>-0.1070256032910277</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.05953397964547844</v>
+        <v>-0.05953449190616943</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.2059134190447585</v>
+        <v>-0.2059163232236187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1144683615914362</v>
+        <v>-0.1144699774862292</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.3856193886050062</v>
+        <v>-0.3856277049267565</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.213963439340788</v>
+        <v>-0.2139680665699157</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0007250347462138331</v>
+        <v>-0.0007250347462138333</v>
       </c>
       <c r="E7">
         <v>-1.304282158418061E-05</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.7051870268391329</v>
+        <v>-0.7052089922110958</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.3893550314963616</v>
+        <v>-0.3893672531024993</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.257051870817367</v>
+        <v>-1.257106069759932</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.6859282196966195</v>
+        <v>-0.6859583761688264</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-9.529251412821317E-05</v>
+        <v>-9.52925141282132E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>-0.01306575912841654</v>
       </c>
       <c r="E7">
-        <v>-0.0002768786479233602</v>
+        <v>-0.0002768786479233603</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.188231993150207</v>
+        <v>-2.188358257697059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.163041822878175</v>
+        <v>-1.163112076892695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0003744115355669206</v>
+        <v>-0.0003744115355669208</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.04801849952887955</v>
+        <v>-0.04801849952887961</v>
       </c>
       <c r="E7">
-        <v>-0.001087877265943449</v>
+        <v>-0.00108787726594345</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.763126094411244</v>
+        <v>-3.763406251976154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.893202950617971</v>
+        <v>-1.893358831220432</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.001343159304138789</v>
+        <v>-0.001343159304138791</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.1619321243826597</v>
+        <v>-0.1619321243826606</v>
       </c>
       <c r="E7">
-        <v>-0.003902637426222796</v>
+        <v>-0.003902637426222804</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6.538170999204667</v>
+        <v>-6.538767183545043</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.960250634608561</v>
+        <v>-2.96058235356173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.004417115395066899</v>
+        <v>-0.004417115395066935</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4988748712660267</v>
+        <v>-0.498874871266037</v>
       </c>
       <c r="E7">
-        <v>-0.01283421840105999</v>
+        <v>-0.01283421840106009</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-11.76766237531125</v>
+        <v>-11.76888557321505</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.456249126467521</v>
+        <v>-4.456929717856238</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01320049646376041</v>
+        <v>-0.01320049646376081</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.366172794174894</v>
+        <v>-1.366172794175002</v>
       </c>
       <c r="E7">
-        <v>-0.03835490800342906</v>
+        <v>-0.03835490800343023</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-21.96019170607529</v>
+        <v>-21.96262031265549</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6.476755606746424</v>
+        <v>-6.478106891538109</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.03458683000256699</v>
+        <v>-0.03458683000257103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.093659558444425</v>
+        <v>-3.093659558445419</v>
       </c>
       <c r="E7">
-        <v>-0.1004943023560189</v>
+        <v>-0.1004943023560306</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-39.86327682191108</v>
+        <v>-39.86795451660728</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9.114275465149015</v>
+        <v>-9.116878150057619</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.072872951900416</v>
+        <v>-0.07287295190045182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.132092468677182</v>
+        <v>-5.132092468685363</v>
       </c>
       <c r="E7">
-        <v>-0.2117371398683401</v>
+        <v>-0.2117371398684442</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61.70582121705118</v>
+        <v>-61.71457556243452</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-12.44959189355992</v>
+        <v>-12.45446284046252</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1058432150653633</v>
+        <v>-0.1058432150656481</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.046971587271208</v>
+        <v>-6.046971587331858</v>
       </c>
       <c r="E7">
-        <v>-0.3075344012828676</v>
+        <v>-0.3075344012836949</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-76.55350518693679</v>
+        <v>-76.56944282808129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-16.54053942936921</v>
+        <v>-16.54940718574743</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09062169697466889</v>
+        <v>-0.09062169697671879</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.323617146445094</v>
+        <v>-6.323617146854358</v>
       </c>
       <c r="E7">
-        <v>-0.2633072824283692</v>
+        <v>-0.2633072824343253</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-86.95923033359894</v>
+        <v>-86.98748097767682</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21.40871719090536</v>
+        <v>-21.4244359416929</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05327235366687576</v>
+        <v>-0.0532723536803578</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.898635303087421</v>
+        <v>-6.89863530562203</v>
       </c>
       <c r="E7">
-        <v>-0.1547863165319993</v>
+        <v>-0.1547863165711723</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-100.3619888258383</v>
+        <v>-100.4107872212905</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-27.02742469301206</v>
+        <v>-27.05457627230909</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06034760150110662</v>
+        <v>-0.06034760158272391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.544690670498833</v>
+        <v>-7.544690685009417</v>
       </c>
       <c r="E7">
-        <v>-0.1753439130230392</v>
+        <v>-0.1753439132601836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-116.5630038104542</v>
+        <v>-116.645214964492</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-33.31515719293903</v>
+        <v>-33.36089969273427</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1024202495612959</v>
+        <v>-0.102420250019092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.297308649267951</v>
+        <v>-8.297308726537809</v>
       </c>
       <c r="E7">
-        <v>-0.2975887505743624</v>
+        <v>-0.2975887519045192</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-135.3446318269498</v>
+        <v>-135.4798371746679</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-40.13316116448182</v>
+        <v>-40.20838954951868</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1484004384658645</v>
+        <v>-0.1484004408585809</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.943181603246487</v>
+        <v>-8.943181987963266</v>
       </c>
       <c r="E7">
-        <v>-0.431187204258023</v>
+        <v>-0.4311872112102172</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-154.057882560956</v>
+        <v>-154.2751505674323</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-47.29521286645785</v>
+        <v>-47.41609990998952</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2101128729941109</v>
+        <v>-0.2101128847027097</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.530704503060035</v>
+        <v>-9.530706301475755</v>
       </c>
       <c r="E7">
-        <v>-0.6104967291305632</v>
+        <v>-0.6104967631506649</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-172.9838712456601</v>
+        <v>-173.3253320357568</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-54.60128801048759</v>
+        <v>-54.79127044938797</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2730140538768018</v>
+        <v>-0.273014107722755</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.02863771548145</v>
+        <v>-10.02864563313401</v>
       </c>
       <c r="E7">
-        <v>-0.793260234479467</v>
+        <v>-0.7932603909324145</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-191.2473966683123</v>
+        <v>-191.7727268534466</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-61.88762538262261</v>
+        <v>-62.17988787550811</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3050561098675992</v>
+        <v>-0.3050563432208039</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.702797473919411</v>
+        <v>-9.702830367250385</v>
       </c>
       <c r="E7">
-        <v>-0.8863605290889671</v>
+        <v>-0.8863612071120039</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-202.5845308796814</v>
+        <v>-203.3764436263739</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-69.09095009059691</v>
+        <v>-69.53143587008645</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3788612672581258</v>
+        <v>-0.3788622217756892</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.560491990120074</v>
+        <v>-9.560621052182675</v>
       </c>
       <c r="E7">
-        <v>-1.100806253131519</v>
+        <v>-1.100809026544885</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-216.3330112063747</v>
+        <v>-217.5038862007555</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-76.32570944739389</v>
+        <v>-76.97664969430338</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6083747061584518</v>
+        <v>-0.6083783933737105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.510290323046087</v>
+        <v>-9.51076854569442</v>
       </c>
       <c r="E7">
-        <v>-1.767672598555694</v>
+        <v>-1.76768331200139</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-235.2571372863235</v>
+        <v>-236.9571648878959</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83.96694565373576</v>
+        <v>-84.91084930433273</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9184512331351882</v>
+        <v>-0.9184646789903448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.34563291093894</v>
+        <v>-9.347304875848517</v>
       </c>
       <c r="E7">
-        <v>-2.668620278733139</v>
+        <v>-2.668659346546912</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-257.3013394292855</v>
+        <v>-259.7293886325306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.72477397638941</v>
+        <v>-94.06875795005392</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.230110216832989</v>
+        <v>-1.230156449278217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.361694340986665</v>
+        <v>-9.367201427004755</v>
       </c>
       <c r="E7">
-        <v>-3.574165890671897</v>
+        <v>-3.574300222072871</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284.6777749296958</v>
+        <v>-288.0985378069723</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103.692126925523</v>
+        <v>-105.5723987737391</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.462569285311276</v>
+        <v>-1.462718893167396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.089141143400729</v>
+        <v>-9.106190901800396</v>
       </c>
       <c r="E7">
-        <v>-4.249590955973393</v>
+        <v>-4.250025651408812</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-314.6473833390788</v>
+        <v>-319.4239455098037</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118.3449984973735</v>
+        <v>-120.9312380905484</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.326088861308202</v>
+        <v>-1.326543234495011</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.695186603756135</v>
+        <v>-8.74463323828061</v>
       </c>
       <c r="E7">
-        <v>-3.853038135306549</v>
+        <v>-3.854358346393088</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-344.6421935156105</v>
+        <v>-351.3043458321707</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-138.4777524282406</v>
+        <v>-141.9770893019554</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.2405799865078</v>
+        <v>-1.241869841463092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.113133964652278</v>
+        <v>-8.246764864222595</v>
       </c>
       <c r="E7">
-        <v>-3.604586492942193</v>
+        <v>-3.60833425108779</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-387.8828933642212</v>
+        <v>-397.2679768334311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-166.0598054135696</v>
+        <v>-170.7200699768713</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.196771827929852</v>
+        <v>-1.200172697648808</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.740634817215276</v>
+        <v>-8.074432977886039</v>
       </c>
       <c r="E7">
-        <v>-3.477299015787855</v>
+        <v>-3.487180465743945</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-450.5113315890766</v>
+        <v>-464.0217898385682</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-203.0138868530733</v>
+        <v>-209.1258449165497</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.06264481104462</v>
+        <v>-1.07089053880821</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.569673738897855</v>
+        <v>-9.330720162753682</v>
       </c>
       <c r="E7">
-        <v>-3.087584173809709</v>
+        <v>-3.111542676481336</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-539.4900679099479</v>
+        <v>-559.4558859592995</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-250.9528239388827</v>
+        <v>-258.85120242085</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9154841246367359</v>
+        <v>-0.9335841184343123</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.80313297248339</v>
+        <v>-12.35809311287724</v>
       </c>
       <c r="E7">
-        <v>-2.659999150444006</v>
+        <v>-2.71258986920027</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-660.0376985484008</v>
+        <v>-689.9443570829011</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-310.9125605223497</v>
+        <v>-320.9758511137362</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8387025077930949</v>
+        <v>-0.8738330741566396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15.34707307160618</v>
+        <v>-18.1269927414624</v>
       </c>
       <c r="E7">
-        <v>-2.436905128300427</v>
+        <v>-2.538979292304883</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-821.20263746306</v>
+        <v>-865.1359052580677</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-383.1135197213705</v>
+        <v>-395.7628119668196</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.159493456055162</v>
+        <v>-1.217812413686445</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-22.58165610023229</v>
+        <v>-26.82842397036961</v>
       </c>
       <c r="E7">
-        <v>-3.368984262043808</v>
+        <v>-3.538433817289289</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1032.287127483734</v>
+        <v>-1092.9973030584</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-466.774293298962</v>
+        <v>-482.4717321630317</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.726213984804963</v>
+        <v>-1.805762762484105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-31.77098908591302</v>
+        <v>-37.28033047701415</v>
       </c>
       <c r="E7">
-        <v>-5.015627916964439</v>
+        <v>-5.24676210635231</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1280.81416696041</v>
+        <v>-1357.661292115006</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-559.9931244466882</v>
+        <v>-579.2409881908367</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.365338059407942</v>
+        <v>-2.452051478416073</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-42.93089217743317</v>
+        <v>-49.22883194121966</v>
       </c>
       <c r="E7">
-        <v>-6.872644821705219</v>
+        <v>-7.124596346244488</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1557.203816911705</v>
+        <v>-1647.354716044094</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-659.713516944434</v>
+        <v>-683.0553307280244</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.400569905429624</v>
+        <v>-3.480224275942021</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-61.34985276497229</v>
+        <v>-68.1933171103047</v>
       </c>
       <c r="E7">
-        <v>-9.880578828232016</v>
+        <v>-10.1120198245204</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1900.559251246716</v>
+        <v>-2002.950085486802</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-761.7919900416962</v>
+        <v>-789.8174741577728</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.567080209515738</v>
+        <v>-4.645659540411536</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-81.81933562128383</v>
+        <v>-89.25415577396278</v>
       </c>
       <c r="E7">
-        <v>-13.26995100230929</v>
+        <v>-13.49826840050363</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2257.284150557414</v>
+        <v>-2373.5577355617</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-861.189030773995</v>
+        <v>-894.5449598759502</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.987512179105209</v>
+        <v>-5.088975213435978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88.94652164584255</v>
+        <v>-97.03449898881045</v>
       </c>
       <c r="E7">
-        <v>-14.49154365676548</v>
+        <v>-14.78635115572502</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2483.384772989521</v>
+        <v>-2615.872707571152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-952.2995801183121</v>
+        <v>-991.7087198099841</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0001137843425054972</v>
+        <v>-0.0001137843426540747</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6.330998724274472E-05</v>
+        <v>-6.330998732541373E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.983558101801768</v>
+        <v>-5.1284106204301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88.58569619951497</v>
+        <v>-97.31074192630281</v>
       </c>
       <c r="E7">
-        <v>-14.48005482590005</v>
+        <v>-14.90093331644069</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2619.251073854653</v>
+        <v>-2769.819882734289</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1029.418878517974</v>
+        <v>-1075.708981927589</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.910148500227396</v>
+        <v>-5.109100396071959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-86.9657894758451</v>
+        <v>-96.22902564256123</v>
       </c>
       <c r="E7">
-        <v>-14.26675841521707</v>
+        <v>-14.84482619343851</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2709.652145134198</v>
+        <v>-2879.58659733222</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1087.30501265332</v>
+        <v>-1141.449320903759</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.758307364809093</v>
+        <v>-5.019000123448746</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-83.82066861784209</v>
+        <v>-93.44996796334081</v>
       </c>
       <c r="E7">
-        <v>-13.82557404036468</v>
+        <v>-14.58303394365196</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2744.881823517621</v>
+        <v>-2935.212030138023</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1121.762286781057</v>
+        <v>-1184.932021789048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.590419495511012</v>
+        <v>-4.922986353275347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80.06447224665588</v>
+        <v>-89.80807838811177</v>
       </c>
       <c r="E7">
-        <v>-13.33776482807501</v>
+        <v>-14.30405963899812</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2728.388213579569</v>
+        <v>-2940.091847533686</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1130.145542504937</v>
+        <v>-1203.773483560313</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.514336217361052</v>
+        <v>-4.948720458397886</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-77.51306330903454</v>
+        <v>-87.14909653848149</v>
       </c>
       <c r="E7">
-        <v>-13.11669987479448</v>
+        <v>-14.37883176876121</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2674.69698901084</v>
+        <v>-2910.049560472302</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1111.688054965704</v>
+        <v>-1197.540483481544</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.347429574465793</v>
+        <v>-4.949081773854918</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-73.3150900315002</v>
+        <v>-82.82226543030923</v>
       </c>
       <c r="E7">
-        <v>-12.63174168015509</v>
+        <v>-14.37988159451229</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2560.668481036726</v>
+        <v>-2825.008769591938</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1067.588597544328</v>
+        <v>-1167.84077687584</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.763783458326466</v>
+        <v>-4.602089955953587</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-62.63027185732497</v>
+        <v>-72.03686332767336</v>
       </c>
       <c r="E7">
-        <v>-10.93591962130007</v>
+        <v>-13.37167411609773</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2348.373268408773</v>
+        <v>-2648.362291696187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1000.848097246979</v>
+        <v>-1118.156113236007</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.530213668208382</v>
+        <v>-3.618409548037993</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-41.71516736391625</v>
+        <v>-51.01227239185838</v>
       </c>
       <c r="E7">
-        <v>-7.351701713611602</v>
+        <v>-10.51352619310436</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2012.737270007059</v>
+        <v>-2354.373688052153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-915.9035205361524</v>
+        <v>-1053.462964011437</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.095240263227206</v>
+        <v>-2.36746949651942</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-18.26254735211005</v>
+        <v>-27.42860599415147</v>
       </c>
       <c r="E7">
-        <v>-3.182292397339439</v>
+        <v>-6.878837851986336</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1630.617422631393</v>
+        <v>-2018.923760507239</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-818.1437581259707</v>
+        <v>-979.724390418506</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5032657614858465</v>
+        <v>-1.831421788023494</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.74258542929554</v>
+        <v>-18.75367057824322</v>
       </c>
       <c r="E7">
-        <v>-1.462271668043504</v>
+        <v>-5.321316087463757</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1365.655569746066</v>
+        <v>-1805.160801185194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-713.3946495323941</v>
+        <v>-903.340078735881</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.000476580116029437</v>
+        <v>-0.0004765801244872317</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.000265170764148854</v>
+        <v>-0.0002651707688547992</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4326823087467158</v>
+        <v>-1.69906602239572</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.15569080228477</v>
+        <v>-18.15524403777108</v>
       </c>
       <c r="E7">
-        <v>-1.257186818105782</v>
+        <v>-4.936747732151264</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1169.205139714041</v>
+        <v>-1666.863650689857</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-607.4303610504923</v>
+        <v>-830.6118109720793</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3683354664811203</v>
+        <v>-1.542590455779573</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.543793481839147</v>
+        <v>-18.05006903881687</v>
       </c>
       <c r="E7">
-        <v>-1.070222848819962</v>
+        <v>-4.482097713583926</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-980.0297711085293</v>
+        <v>-1548.420837364689</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-505.5317332520038</v>
+        <v>-767.2466796018005</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2441999991005279</v>
+        <v>-1.324529340676019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.142505177720622</v>
+        <v>-18.26127883537539</v>
       </c>
       <c r="E7">
-        <v>-0.7095391090518162</v>
+        <v>-3.848506845855351</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-798.8367372906079</v>
+        <v>-1456.006336037992</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-412.0951481082499</v>
+        <v>-717.9050875445049</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1642645857903969</v>
+        <v>-1.177833853826893</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.899555541894432</v>
+        <v>-20.34863347805329</v>
       </c>
       <c r="E7">
-        <v>-0.4772815244872448</v>
+        <v>-3.422273490309746</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-640.8121577605278</v>
+        <v>-1410.059869349801</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-330.3091016737791</v>
+        <v>-685.8157340089638</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2665809518425321</v>
+        <v>-1.337912134682827</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.069492953970309</v>
+        <v>-26.96263969694857</v>
       </c>
       <c r="E7">
-        <v>-0.774568434714324</v>
+        <v>-3.887391431322958</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-528.9879362220788</v>
+        <v>-1438.438706382183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-261.9461563745015</v>
+        <v>-672.5115201267533</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4863394203660006</v>
+        <v>-1.805320102553801</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.472189429289434</v>
+        <v>-37.0981679104415</v>
       </c>
       <c r="E7">
-        <v>-1.413091074096252</v>
+        <v>-5.245475928900559</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-453.7436621272037</v>
+        <v>-1533.374474979934</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-207.3331646083126</v>
+        <v>-677.7562576014291</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6824355668947376</v>
+        <v>-2.472365058918217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.96318886748041</v>
+        <v>-49.55572350192782</v>
       </c>
       <c r="E7">
-        <v>-1.982861285435264</v>
+        <v>-7.183618786310961</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-401.607972589145</v>
+        <v>-1680.16587679915</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-165.5370769125159</v>
+        <v>-699.7064958530767</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8229080458891489</v>
+        <v>-3.273391725654313</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14.40213148054807</v>
+        <v>-64.19701137911153</v>
       </c>
       <c r="E7">
-        <v>-2.391013283629841</v>
+        <v>-9.51105428809695</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-367.5117198338049</v>
+        <v>-1870.685422382628</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134.7397300348632</v>
+        <v>-735.2880133826061</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8645367296944947</v>
+        <v>-4.115136542304019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15.19731500952465</v>
+        <v>-79.47931200996177</v>
       </c>
       <c r="E7">
-        <v>-2.511968153928942</v>
+        <v>-11.95679904425787</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-334.7420832194707</v>
+        <v>-2084.54531115875</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-112.7070617566401</v>
+        <v>-780.6968121312233</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6668286091422116</v>
+        <v>-4.766231448597343</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.61952011274312</v>
+        <v>-91.06963722268527</v>
       </c>
       <c r="E7">
-        <v>-1.93751424637087</v>
+        <v>-13.84859798537646</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275.9442297992061</v>
+        <v>-2277.179360302036</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-97.22733402137158</v>
+        <v>-831.900997908489</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.001563714002884433</v>
+        <v>-0.00156371418037723</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0008700556683793222</v>
+        <v>-0.0008700557671369055</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3045863723886648</v>
+        <v>-5.060530973838545</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.181497802806754</v>
+        <v>-95.93269058030288</v>
       </c>
       <c r="E7">
-        <v>-0.8849956760442537</v>
+        <v>-14.70370455254747</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-200.6197054698467</v>
+        <v>-2415.411230611873</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86.41820943248743</v>
+        <v>-885.0419697775607</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06709206869095038</v>
+        <v>-5.106636655103954</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.053764089411652</v>
+        <v>-95.98264595939963</v>
       </c>
       <c r="E7">
-        <v>-0.1949404046632417</v>
+        <v>-14.83766763251381</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-151.0828771759943</v>
+        <v>-2509.726364817078</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-78.86723004631671</v>
+        <v>-936.6944991326009</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.004961746633747325</v>
+        <v>-5.062755909591969</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.05221190024830498</v>
+        <v>-93.94574101714856</v>
       </c>
       <c r="E7">
-        <v>-0.01441668017533712</v>
+        <v>-14.71016924926326</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-132.8411204799405</v>
+        <v>-2578.783619657922</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-73.63373647178517</v>
+        <v>-984.005297761771</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0002398094739836681</v>
+        <v>-4.991221727027546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.003879794742415539</v>
+        <v>-90.75719684323717</v>
       </c>
       <c r="E7">
-        <v>-0.0006967821504475536</v>
+        <v>-14.50232199148085</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-126.1486037435928</v>
+        <v>-2626.952899881178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-70.17047050932337</v>
+        <v>-1024.756934274337</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.000538203821729927</v>
+        <v>-4.91047572726277</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.01362494444303247</v>
+        <v>-86.58135060939428</v>
       </c>
       <c r="E7">
-        <v>-0.001563786492895647</v>
+        <v>-14.26770919482391</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-122.7141681921502</v>
+        <v>-2653.089565205034</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-68.21582864500617</v>
+        <v>-1057.394722343357</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.002075176448036652</v>
+        <v>-4.779643097816678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.05146027682900173</v>
+        <v>-80.74578227331725</v>
       </c>
       <c r="E7">
-        <v>-0.006029561234597299</v>
+        <v>-13.88756641155604</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-122.0719659531509</v>
+        <v>-2649.683886203561</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-67.6837004321111</v>
+        <v>-1081.029612326652</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.00732960191772749</v>
+        <v>-4.480905118572129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.17824696009694</v>
+        <v>-71.63961217459308</v>
       </c>
       <c r="E7">
-        <v>-0.0212966389580859</v>
+        <v>-13.01956362525849</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-124.7034680659707</v>
+        <v>-2601.646475182197</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-68.56070249605912</v>
+        <v>-1095.414138776967</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0237477661382267</v>
+        <v>-3.944858675372147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.5656630542716771</v>
+        <v>-58.89007455223549</v>
       </c>
       <c r="E7">
-        <v>-0.06900069160422792</v>
+        <v>-11.46204553713624</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-131.9931673310894</v>
+        <v>-2505.179264121393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-70.81762990171394</v>
+        <v>-1100.888428996264</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06965877649249495</v>
+        <v>-3.303995208120179</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.614500728424275</v>
+        <v>-45.6803252269695</v>
       </c>
       <c r="E7">
-        <v>-0.2023981424741029</v>
+        <v>-9.599974713005611</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-147.123672204731</v>
+        <v>-2388.317483952286</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-74.34598375121803</v>
+        <v>-1098.301843069528</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1774334992777055</v>
+        <v>-2.792152737550797</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.934496050129075</v>
+        <v>-36.50775707804976</v>
       </c>
       <c r="E7">
-        <v>-0.515544666081766</v>
+        <v>-8.112782854363648</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-174.9557342340033</v>
+        <v>-2291.921919946391</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-78.9308001050252</v>
+        <v>-1088.921716387432</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.004440163854357177</v>
+        <v>-0.004440165701604912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.002470521471779119</v>
+        <v>-0.002470522499593912</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3616545127778426</v>
+        <v>-2.455861071467535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.475476590907304</v>
+        <v>-31.94452631464153</v>
       </c>
       <c r="E7">
-        <v>-1.050810899779419</v>
+        <v>-7.135665368642278</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-214.9212841525078</v>
+        <v>-2224.167092781066</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-84.26384481634824</v>
+        <v>-1074.339140635432</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5357310374491228</v>
+        <v>-2.251449868321153</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.31219586987116</v>
+        <v>-30.78865676556848</v>
       </c>
       <c r="E7">
-        <v>-1.556601656032659</v>
+        <v>-6.54173521510044</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250.1927194381434</v>
+        <v>-2178.47011650297</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89.99005101939322</v>
+        <v>-1056.375189057961</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5791968971230164</v>
+        <v>-2.094694627021733</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.81135567963927</v>
+        <v>-31.31752018675087</v>
       </c>
       <c r="E7">
-        <v>-1.682894561277469</v>
+        <v>-6.086272583403189</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-265.2871698603361</v>
+        <v>-2143.693593471142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95.76999781460898</v>
+        <v>-1036.983743084881</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5829679136832245</v>
+        <v>-2.004847783149833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.59582285728341</v>
+        <v>-33.51945231456916</v>
       </c>
       <c r="E7">
-        <v>-1.693851497150545</v>
+        <v>-5.825216687470354</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-273.8057355654698</v>
+        <v>-2123.77429323202</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.3367553908047</v>
+        <v>-1018.143315562946</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6485375407255385</v>
+        <v>-2.100169236418236</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.25480503200588</v>
+        <v>-38.7382026131741</v>
       </c>
       <c r="E7">
-        <v>-1.884368347780471</v>
+        <v>-6.102179419963015</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-289.5477922644829</v>
+        <v>-2134.787893119357</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106.5282684765415</v>
+        <v>-1001.732158910187</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7339441511583215</v>
+        <v>-2.441587741049501</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.30219877721344</v>
+        <v>-47.3172668733133</v>
       </c>
       <c r="E7">
-        <v>-2.132522854319457</v>
+        <v>-7.094193271241308</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-307.8336987058461</v>
+        <v>-2183.669158553931</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111.2859799119436</v>
+        <v>-989.3888153760244</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7563909994350777</v>
+        <v>-2.992132989011278</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.61259911666259</v>
+        <v>-58.44416611357202</v>
       </c>
       <c r="E7">
-        <v>-2.197743643778816</v>
+        <v>-8.693838587254195</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-318.445107663419</v>
+        <v>-2265.837596334588</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115.6235483893618</v>
+        <v>-982.3718856587147</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6920363401774711</v>
+        <v>-3.66234388092215</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.82262677374333</v>
+        <v>-70.94827703200396</v>
       </c>
       <c r="E7">
-        <v>-2.010756961710164</v>
+        <v>-10.64118027797837</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-318.216023068849</v>
+        <v>-2371.926000012908</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119.5806245184394</v>
+        <v>-981.4425708493312</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5728366137308061</v>
+        <v>-4.355790323279533</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.09295227897897</v>
+        <v>-83.5354911741377</v>
       </c>
       <c r="E7">
-        <v>-1.664414340851391</v>
+        <v>-12.65603438402961</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309.1392742643545</v>
+        <v>-2490.477152786492</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-123.1810430595402</v>
+        <v>-986.7960150892803</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4372798042249946</v>
+        <v>-4.967045750132092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.814699495465857</v>
+        <v>-94.41622261019266</v>
       </c>
       <c r="E7">
-        <v>-1.270545142665745</v>
+        <v>-14.43207710544465</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-294.9841709690348</v>
+        <v>-2605.16888355335</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-126.4104855517207</v>
+        <v>-998.0596727509144</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01119401547393626</v>
+        <v>-0.01119402791803552</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.006228376496054953</v>
+        <v>-0.00622838341999324</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3228612109807465</v>
+        <v>-5.375754207058042</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.791487387037804</v>
+        <v>-101.3591923594999</v>
       </c>
       <c r="E7">
-        <v>-0.9380944178151476</v>
+        <v>-15.61960632517164</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-282.450001124086</v>
+        <v>-2695.186203992108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129.2182662640461</v>
+        <v>-1014.361261167268</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2975180298968337</v>
+        <v>-5.546929136730804</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.372735660157294</v>
+        <v>-103.6582503659368</v>
       </c>
       <c r="E7">
-        <v>-0.8644581434783246</v>
+        <v>-16.11696630690538</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-282.9388300574911</v>
+        <v>-2752.269026521133</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131.5372240311782</v>
+        <v>-1034.452259514173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3626072477328968</v>
+        <v>-5.548706780872549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.557413668320395</v>
+        <v>-102.4520396790145</v>
       </c>
       <c r="E7">
-        <v>-1.053579133660097</v>
+        <v>-16.1221313685155</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-296.3720659837227</v>
+        <v>-2783.758875012813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-133.3095424404163</v>
+        <v>-1056.861968291184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4340529112909151</v>
+        <v>-5.468996631725132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.816795453829988</v>
+        <v>-99.21601331111792</v>
       </c>
       <c r="E7">
-        <v>-1.261169193665394</v>
+        <v>-15.89052830374578</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309.4726902356102</v>
+        <v>-2799.826095733477</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134.5068916554841</v>
+        <v>-1080.055465799101</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4695919173689485</v>
+        <v>-5.354241033032707</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.422188991590987</v>
+        <v>-94.72023868837347</v>
       </c>
       <c r="E7">
-        <v>-1.364430106040805</v>
+        <v>-15.55709838746879</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-315.9000320287327</v>
+        <v>-2804.611506118096</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-135.1385794699347</v>
+        <v>-1102.574611629583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4790189793225695</v>
+        <v>-5.181878213795073</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.583514787241853</v>
+        <v>-88.64728483202201</v>
       </c>
       <c r="E7">
-        <v>-1.391821052659093</v>
+        <v>-15.05628691471696</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-317.5052976009291</v>
+        <v>-2792.963844850658</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-135.2476847682994</v>
+        <v>-1123.150064316619</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4803773148907728</v>
+        <v>-4.899250967390427</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.631348418264201</v>
+        <v>-80.38834225345202</v>
       </c>
       <c r="E7">
-        <v>-1.39576778571563</v>
+        <v>-14.23509491903162</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-317.2626740171769</v>
+        <v>-2757.351363164375</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134.8995699029872</v>
+        <v>-1140.780218656786</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4824706862433342</v>
+        <v>-4.473744506486064</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.719444715938014</v>
+        <v>-69.92681675668905</v>
       </c>
       <c r="E7">
-        <v>-1.401850213438324</v>
+        <v>-12.9987579973366</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-316.6436864265395</v>
+        <v>-2695.62732782577</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134.1681601708273</v>
+        <v>-1154.777690184572</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4947223331695242</v>
+        <v>-3.949029645997681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.00774048692784</v>
+        <v>-58.65881520494197</v>
       </c>
       <c r="E7">
-        <v>-1.437448176896333</v>
+        <v>-11.47416456577025</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-317.17420160065</v>
+        <v>-2618.428230053777</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-133.1240916340533</v>
+        <v>-1164.786191178622</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5270986774572355</v>
+        <v>-3.443291011558456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.634315045577626</v>
+        <v>-49.09734283589849</v>
       </c>
       <c r="E7">
-        <v>-1.531519768071075</v>
+        <v>-10.00470780321977</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-320.2129179011631</v>
+        <v>-2546.949430887689</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131.8266882774585</v>
+        <v>-1170.77150016388</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.02545881095880605</v>
+        <v>-0.02545881095880606</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6.538767183545043</v>
+        <v>-6.538767183545042</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-86.98748097767682</v>
+        <v>-86.98748097767681</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-203.3764436263739</v>
+        <v>-203.376443626374</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-236.9571648878959</v>
+        <v>-236.9571648878958</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-689.9443570829011</v>
+        <v>-689.9443570829012</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2373.5577355617</v>
+        <v>-2373.557735561699</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2910.049560472302</v>
+        <v>-2910.049560472301</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2825.008769591938</v>
+        <v>-2825.008769591939</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2648.362291696187</v>
+        <v>-2648.362291696186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2626.952899881178</v>
+        <v>-2626.952899881177</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2178.47011650297</v>
+        <v>-2178.470116502971</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11929,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2143.693593471142</v>
+        <v>-2143.693593471141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2183.669158553931</v>
+        <v>-2183.669158553932</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12481,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2265.837596334588</v>
+        <v>-2265.837596334589</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13309,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2752.269026521133</v>
+        <v>-2752.269026521134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2804.611506118096</v>
+        <v>-2804.611506118097</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2757.351363164375</v>
+        <v>-2757.351363164376</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b2.xlsx
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-86.98748097767681</v>
+        <v>-86.98748097767682</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-559.4558859592995</v>
+        <v>-559.4558859592994</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2373.557735561699</v>
+        <v>-2373.5577355617</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2277.179360302036</v>
+        <v>-2277.179360302035</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2178.470116502971</v>
+        <v>-2178.47011650297</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2183.669158553932</v>
+        <v>-2183.669158553931</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12481,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2265.837596334589</v>
+        <v>-2265.837596334588</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13309,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2752.269026521134</v>
+        <v>-2752.269026521133</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2804.611506118097</v>
+        <v>-2804.611506118096</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2757.351363164376</v>
+        <v>-2757.351363164375</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14275,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2618.428230053777</v>
+        <v>-2618.428230053776</v>
       </c>
     </row>
     <row r="8" spans="1:7">
